--- a/MBS_control/objects/summary_subjects.xlsx
+++ b/MBS_control/objects/summary_subjects.xlsx
@@ -1,166 +1,186 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasquettier/Library/Mobile Documents/com~apple~CloudDocs/01.WORK/04CARIPARO/02.Data/github/Face_To_Face/MBS_control/objects/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9409EE6F-4568-0D4F-9FDB-B2F0B6FBFB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20660" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="47">
   <si>
-    <t xml:space="preserve">subject</t>
+    <t>subject</t>
   </si>
   <si>
-    <t xml:space="preserve">match</t>
+    <t>match</t>
   </si>
   <si>
-    <t xml:space="preserve">group</t>
+    <t>group</t>
   </si>
   <si>
-    <t xml:space="preserve">emotion</t>
+    <t>emotion</t>
   </si>
   <si>
-    <t xml:space="preserve">video_set</t>
+    <t>video_set</t>
   </si>
   <si>
-    <t xml:space="preserve">correct</t>
+    <t>correct</t>
   </si>
   <si>
-    <t xml:space="preserve">acc</t>
+    <t>acc</t>
   </si>
   <si>
-    <t xml:space="preserve">1_control</t>
+    <t>1_control</t>
   </si>
   <si>
-    <t xml:space="preserve">control</t>
+    <t>control</t>
   </si>
   <si>
-    <t xml:space="preserve">surprise</t>
+    <t>surprise</t>
   </si>
   <si>
-    <t xml:space="preserve">ADFES</t>
+    <t>ADFES</t>
   </si>
   <si>
-    <t xml:space="preserve">JeFEE</t>
+    <t>JeFEE</t>
   </si>
   <si>
-    <t xml:space="preserve">anger</t>
+    <t>anger</t>
   </si>
   <si>
-    <t xml:space="preserve">disgust</t>
+    <t>disgust</t>
   </si>
   <si>
-    <t xml:space="preserve">sadness</t>
+    <t>sadness</t>
   </si>
   <si>
-    <t xml:space="preserve">fear</t>
+    <t>fear</t>
   </si>
   <si>
-    <t xml:space="preserve">happiness</t>
+    <t>happiness</t>
   </si>
   <si>
-    <t xml:space="preserve">1_moebius</t>
+    <t>1_moebius</t>
   </si>
   <si>
-    <t xml:space="preserve">moebius</t>
+    <t>moebius</t>
   </si>
   <si>
-    <t xml:space="preserve">10_control</t>
+    <t>10_control</t>
   </si>
   <si>
-    <t xml:space="preserve">10_moebius</t>
+    <t>10_moebius</t>
   </si>
   <si>
-    <t xml:space="preserve">11_control</t>
+    <t>11_control</t>
   </si>
   <si>
-    <t xml:space="preserve">11_moebius</t>
+    <t>11_moebius</t>
   </si>
   <si>
-    <t xml:space="preserve">12_control</t>
+    <t>12_control</t>
   </si>
   <si>
-    <t xml:space="preserve">12_moebius</t>
+    <t>12_moebius</t>
   </si>
   <si>
-    <t xml:space="preserve">13_control</t>
+    <t>13_control</t>
   </si>
   <si>
-    <t xml:space="preserve">13_moebius</t>
+    <t>13_moebius</t>
   </si>
   <si>
-    <t xml:space="preserve">14_control</t>
+    <t>14_control</t>
   </si>
   <si>
-    <t xml:space="preserve">14_moebius</t>
+    <t>14_moebius</t>
   </si>
   <si>
-    <t xml:space="preserve">15_control</t>
+    <t>15_control</t>
   </si>
   <si>
-    <t xml:space="preserve">15_moebius</t>
+    <t>15_moebius</t>
   </si>
   <si>
-    <t xml:space="preserve">2_control</t>
+    <t>2_control</t>
   </si>
   <si>
-    <t xml:space="preserve">2_moebius</t>
+    <t>2_moebius</t>
   </si>
   <si>
-    <t xml:space="preserve">3_control</t>
+    <t>3_control</t>
   </si>
   <si>
-    <t xml:space="preserve">3_moebius</t>
+    <t>3_moebius</t>
   </si>
   <si>
-    <t xml:space="preserve">4_control</t>
+    <t>4_control</t>
   </si>
   <si>
-    <t xml:space="preserve">4_moebius</t>
+    <t>4_moebius</t>
   </si>
   <si>
-    <t xml:space="preserve">5_control</t>
+    <t>5_control</t>
   </si>
   <si>
-    <t xml:space="preserve">5_moebius</t>
+    <t>5_moebius</t>
   </si>
   <si>
-    <t xml:space="preserve">6_control</t>
+    <t>6_control</t>
   </si>
   <si>
-    <t xml:space="preserve">6_moebius</t>
+    <t>6_moebius</t>
   </si>
   <si>
-    <t xml:space="preserve">7_control</t>
+    <t>7_control</t>
   </si>
   <si>
-    <t xml:space="preserve">7_moebius</t>
+    <t>7_moebius</t>
   </si>
   <si>
-    <t xml:space="preserve">8_control</t>
+    <t>8_control</t>
   </si>
   <si>
-    <t xml:space="preserve">8_moebius</t>
+    <t>8_moebius</t>
   </si>
   <si>
-    <t xml:space="preserve">9_control</t>
+    <t>9_control</t>
   </si>
   <si>
-    <t xml:space="preserve">9_moebius</t>
+    <t>9_moebius</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -193,9 +213,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -477,14 +506,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H361"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,11 +538,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -523,18 +554,22 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="n">
-        <v>8</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(G2,G4,G6,G8,G10,G12)</f>
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -546,18 +581,18 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -569,18 +604,18 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>6</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0.75</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -592,18 +627,18 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0.375</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
@@ -615,18 +650,18 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0.625</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
@@ -638,18 +673,18 @@
       <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.25</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
@@ -661,18 +696,18 @@
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0.375</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
@@ -684,18 +719,18 @@
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>0.125</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
@@ -707,18 +742,18 @@
       <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>5</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.625</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
@@ -730,18 +765,18 @@
       <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>0.125</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
@@ -753,18 +788,18 @@
       <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>4</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
@@ -776,18 +811,18 @@
       <c r="E13" t="s">
         <v>11</v>
       </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>0.125</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
@@ -799,18 +834,18 @@
       <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>7</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>0.875</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
@@ -822,18 +857,18 @@
       <c r="E15" t="s">
         <v>11</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>6</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>0.75</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
@@ -845,18 +880,18 @@
       <c r="E16" t="s">
         <v>10</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>4</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>0.5</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
@@ -868,18 +903,18 @@
       <c r="E17" t="s">
         <v>11</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>3</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.375</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
@@ -891,18 +926,18 @@
       <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>3</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>0.375</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
@@ -914,18 +949,18 @@
       <c r="E19" t="s">
         <v>11</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>2</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>0.25</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
@@ -937,18 +972,18 @@
       <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>4</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>0.5</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
@@ -960,18 +995,18 @@
       <c r="E21" t="s">
         <v>11</v>
       </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>0.125</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
@@ -983,18 +1018,18 @@
       <c r="E22" t="s">
         <v>10</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>7</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>0.875</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
@@ -1006,18 +1041,18 @@
       <c r="E23" t="s">
         <v>11</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>2</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>0.25</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
@@ -1029,18 +1064,18 @@
       <c r="E24" t="s">
         <v>10</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>7</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>0.875</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
@@ -1052,18 +1087,18 @@
       <c r="E25" t="s">
         <v>11</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>4</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>0.5</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>10</v>
       </c>
       <c r="C26" t="s">
@@ -1075,18 +1110,18 @@
       <c r="E26" t="s">
         <v>10</v>
       </c>
-      <c r="F26" t="n">
-        <v>8</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>10</v>
       </c>
       <c r="C27" t="s">
@@ -1098,18 +1133,18 @@
       <c r="E27" t="s">
         <v>11</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>6</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>0.75</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>10</v>
       </c>
       <c r="C28" t="s">
@@ -1121,18 +1156,18 @@
       <c r="E28" t="s">
         <v>10</v>
       </c>
-      <c r="F28" t="n">
-        <v>8</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>10</v>
       </c>
       <c r="C29" t="s">
@@ -1144,18 +1179,18 @@
       <c r="E29" t="s">
         <v>11</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>5</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>0.625</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>10</v>
       </c>
       <c r="C30" t="s">
@@ -1167,18 +1202,18 @@
       <c r="E30" t="s">
         <v>10</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>6</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>0.75</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>10</v>
       </c>
       <c r="C31" t="s">
@@ -1190,18 +1225,18 @@
       <c r="E31" t="s">
         <v>11</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>5</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>0.625</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>19</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>10</v>
       </c>
       <c r="C32" t="s">
@@ -1213,18 +1248,18 @@
       <c r="E32" t="s">
         <v>10</v>
       </c>
-      <c r="F32" t="n">
-        <v>8</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="F32">
+        <v>8</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>19</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>10</v>
       </c>
       <c r="C33" t="s">
@@ -1236,18 +1271,18 @@
       <c r="E33" t="s">
         <v>11</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>4</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>0.5</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>19</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>10</v>
       </c>
       <c r="C34" t="s">
@@ -1259,18 +1294,18 @@
       <c r="E34" t="s">
         <v>10</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>3</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>0.375</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>19</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>10</v>
       </c>
       <c r="C35" t="s">
@@ -1282,18 +1317,18 @@
       <c r="E35" t="s">
         <v>11</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>7</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>0.875</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>10</v>
       </c>
       <c r="C36" t="s">
@@ -1305,18 +1340,18 @@
       <c r="E36" t="s">
         <v>10</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>7</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>0.875</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>19</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>10</v>
       </c>
       <c r="C37" t="s">
@@ -1328,18 +1363,18 @@
       <c r="E37" t="s">
         <v>11</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>5</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>0.625</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>20</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>10</v>
       </c>
       <c r="C38" t="s">
@@ -1351,18 +1386,18 @@
       <c r="E38" t="s">
         <v>10</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>7</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>0.875</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>20</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>10</v>
       </c>
       <c r="C39" t="s">
@@ -1374,18 +1409,18 @@
       <c r="E39" t="s">
         <v>11</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>7</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>0.875</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>20</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>10</v>
       </c>
       <c r="C40" t="s">
@@ -1397,18 +1432,18 @@
       <c r="E40" t="s">
         <v>10</v>
       </c>
-      <c r="F40" t="n">
-        <v>8</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>20</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>10</v>
       </c>
       <c r="C41" t="s">
@@ -1420,18 +1455,18 @@
       <c r="E41" t="s">
         <v>11</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>7</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0.875</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>20</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>10</v>
       </c>
       <c r="C42" t="s">
@@ -1443,18 +1478,18 @@
       <c r="E42" t="s">
         <v>10</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>7</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>0.875</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>20</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>10</v>
       </c>
       <c r="C43" t="s">
@@ -1466,18 +1501,18 @@
       <c r="E43" t="s">
         <v>11</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>6</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>0.75</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>10</v>
       </c>
       <c r="C44" t="s">
@@ -1489,18 +1524,18 @@
       <c r="E44" t="s">
         <v>10</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>6</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>0.75</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>20</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>10</v>
       </c>
       <c r="C45" t="s">
@@ -1512,18 +1547,18 @@
       <c r="E45" t="s">
         <v>11</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>4</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>0.5</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>20</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>10</v>
       </c>
       <c r="C46" t="s">
@@ -1535,18 +1570,18 @@
       <c r="E46" t="s">
         <v>10</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>6</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>0.75</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>20</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>10</v>
       </c>
       <c r="C47" t="s">
@@ -1558,18 +1593,18 @@
       <c r="E47" t="s">
         <v>11</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>2</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>0.25</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>20</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>10</v>
       </c>
       <c r="C48" t="s">
@@ -1581,18 +1616,18 @@
       <c r="E48" t="s">
         <v>10</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>6</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>0.75</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>20</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>10</v>
       </c>
       <c r="C49" t="s">
@@ -1604,18 +1639,18 @@
       <c r="E49" t="s">
         <v>11</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>5</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>0.625</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>21</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>11</v>
       </c>
       <c r="C50" t="s">
@@ -1627,18 +1662,18 @@
       <c r="E50" t="s">
         <v>10</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>7</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>0.875</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>21</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>11</v>
       </c>
       <c r="C51" t="s">
@@ -1650,18 +1685,18 @@
       <c r="E51" t="s">
         <v>11</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>2</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>0.25</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>21</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>11</v>
       </c>
       <c r="C52" t="s">
@@ -1673,18 +1708,18 @@
       <c r="E52" t="s">
         <v>10</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>3</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>0.375</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>21</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>11</v>
       </c>
       <c r="C53" t="s">
@@ -1696,18 +1731,18 @@
       <c r="E53" t="s">
         <v>11</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>7</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>0.875</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>21</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>11</v>
       </c>
       <c r="C54" t="s">
@@ -1719,18 +1754,18 @@
       <c r="E54" t="s">
         <v>10</v>
       </c>
-      <c r="F54" t="n">
-        <v>8</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
+      <c r="F54">
+        <v>8</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>21</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>11</v>
       </c>
       <c r="C55" t="s">
@@ -1742,18 +1777,18 @@
       <c r="E55" t="s">
         <v>11</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>4</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>0.5</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>21</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>11</v>
       </c>
       <c r="C56" t="s">
@@ -1765,18 +1800,18 @@
       <c r="E56" t="s">
         <v>10</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>5</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>0.625</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>21</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>11</v>
       </c>
       <c r="C57" t="s">
@@ -1788,18 +1823,18 @@
       <c r="E57" t="s">
         <v>11</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>2</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>0.25</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>21</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>11</v>
       </c>
       <c r="C58" t="s">
@@ -1811,18 +1846,18 @@
       <c r="E58" t="s">
         <v>10</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>3</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>0.375</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>21</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>11</v>
       </c>
       <c r="C59" t="s">
@@ -1834,18 +1869,18 @@
       <c r="E59" t="s">
         <v>11</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>2</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>0.25</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>21</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>11</v>
       </c>
       <c r="C60" t="s">
@@ -1857,18 +1892,18 @@
       <c r="E60" t="s">
         <v>10</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>2</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>0.25</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>21</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>11</v>
       </c>
       <c r="C61" t="s">
@@ -1880,18 +1915,18 @@
       <c r="E61" t="s">
         <v>11</v>
       </c>
-      <c r="F61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" t="n">
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
         <v>0.125</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>22</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>11</v>
       </c>
       <c r="C62" t="s">
@@ -1903,18 +1938,18 @@
       <c r="E62" t="s">
         <v>10</v>
       </c>
-      <c r="F62" t="n">
-        <v>8</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
+      <c r="F62">
+        <v>8</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>22</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>11</v>
       </c>
       <c r="C63" t="s">
@@ -1926,18 +1961,18 @@
       <c r="E63" t="s">
         <v>11</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>4</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>0.5</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>22</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>11</v>
       </c>
       <c r="C64" t="s">
@@ -1949,18 +1984,18 @@
       <c r="E64" t="s">
         <v>10</v>
       </c>
-      <c r="F64" t="n">
-        <v>8</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
+      <c r="F64">
+        <v>8</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>22</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>11</v>
       </c>
       <c r="C65" t="s">
@@ -1972,18 +2007,18 @@
       <c r="E65" t="s">
         <v>11</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>4</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>0.5</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>22</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>11</v>
       </c>
       <c r="C66" t="s">
@@ -1995,18 +2030,18 @@
       <c r="E66" t="s">
         <v>10</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>5</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>0.625</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>22</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>11</v>
       </c>
       <c r="C67" t="s">
@@ -2018,18 +2053,18 @@
       <c r="E67" t="s">
         <v>11</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>7</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>0.875</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>22</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>11</v>
       </c>
       <c r="C68" t="s">
@@ -2041,18 +2076,18 @@
       <c r="E68" t="s">
         <v>10</v>
       </c>
-      <c r="F68" t="n">
-        <v>8</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
+      <c r="F68">
+        <v>8</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>22</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>11</v>
       </c>
       <c r="C69" t="s">
@@ -2064,18 +2099,18 @@
       <c r="E69" t="s">
         <v>11</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>2</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>0.25</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>22</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>11</v>
       </c>
       <c r="C70" t="s">
@@ -2087,18 +2122,18 @@
       <c r="E70" t="s">
         <v>10</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>4</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>0.5</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>22</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>11</v>
       </c>
       <c r="C71" t="s">
@@ -2110,18 +2145,18 @@
       <c r="E71" t="s">
         <v>11</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>3</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>0.375</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>22</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>11</v>
       </c>
       <c r="C72" t="s">
@@ -2133,18 +2168,18 @@
       <c r="E72" t="s">
         <v>10</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>6</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>0.75</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>22</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>11</v>
       </c>
       <c r="C73" t="s">
@@ -2156,18 +2191,18 @@
       <c r="E73" t="s">
         <v>11</v>
       </c>
-      <c r="F73" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" t="n">
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
         <v>0.125</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>23</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>12</v>
       </c>
       <c r="C74" t="s">
@@ -2179,18 +2214,18 @@
       <c r="E74" t="s">
         <v>10</v>
       </c>
-      <c r="F74" t="n">
-        <v>8</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
+      <c r="F74">
+        <v>8</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>23</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>12</v>
       </c>
       <c r="C75" t="s">
@@ -2202,18 +2237,18 @@
       <c r="E75" t="s">
         <v>11</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>5</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>0.625</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>23</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>12</v>
       </c>
       <c r="C76" t="s">
@@ -2225,18 +2260,18 @@
       <c r="E76" t="s">
         <v>10</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>6</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>0.75</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>23</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>12</v>
       </c>
       <c r="C77" t="s">
@@ -2248,18 +2283,18 @@
       <c r="E77" t="s">
         <v>11</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>5</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>0.625</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>23</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>12</v>
       </c>
       <c r="C78" t="s">
@@ -2271,18 +2306,18 @@
       <c r="E78" t="s">
         <v>10</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>5</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>0.625</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>23</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>12</v>
       </c>
       <c r="C79" t="s">
@@ -2294,18 +2329,18 @@
       <c r="E79" t="s">
         <v>11</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>2</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>0.25</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>23</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>12</v>
       </c>
       <c r="C80" t="s">
@@ -2317,18 +2352,18 @@
       <c r="E80" t="s">
         <v>10</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>6</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>0.75</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>23</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>12</v>
       </c>
       <c r="C81" t="s">
@@ -2340,18 +2375,18 @@
       <c r="E81" t="s">
         <v>11</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>3</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>0.375</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>23</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>12</v>
       </c>
       <c r="C82" t="s">
@@ -2363,18 +2398,18 @@
       <c r="E82" t="s">
         <v>10</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>6</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>0.75</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>23</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>12</v>
       </c>
       <c r="C83" t="s">
@@ -2386,18 +2421,18 @@
       <c r="E83" t="s">
         <v>11</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>4</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>0.5</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>23</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>12</v>
       </c>
       <c r="C84" t="s">
@@ -2409,18 +2444,18 @@
       <c r="E84" t="s">
         <v>10</v>
       </c>
-      <c r="F84" t="n">
-        <v>8</v>
-      </c>
-      <c r="G84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
+      <c r="F84">
+        <v>8</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>23</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>12</v>
       </c>
       <c r="C85" t="s">
@@ -2432,18 +2467,18 @@
       <c r="E85" t="s">
         <v>11</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>3</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>0.375</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>24</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>12</v>
       </c>
       <c r="C86" t="s">
@@ -2455,18 +2490,18 @@
       <c r="E86" t="s">
         <v>10</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>7</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>0.875</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>24</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>12</v>
       </c>
       <c r="C87" t="s">
@@ -2478,18 +2513,18 @@
       <c r="E87" t="s">
         <v>11</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>4</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>0.5</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>24</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>12</v>
       </c>
       <c r="C88" t="s">
@@ -2501,18 +2536,18 @@
       <c r="E88" t="s">
         <v>10</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>7</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>0.875</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>24</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>12</v>
       </c>
       <c r="C89" t="s">
@@ -2524,18 +2559,18 @@
       <c r="E89" t="s">
         <v>11</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>3</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>0.375</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>24</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>12</v>
       </c>
       <c r="C90" t="s">
@@ -2547,18 +2582,18 @@
       <c r="E90" t="s">
         <v>10</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>3</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>0.375</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>24</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>12</v>
       </c>
       <c r="C91" t="s">
@@ -2570,18 +2605,18 @@
       <c r="E91" t="s">
         <v>11</v>
       </c>
-      <c r="F91" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" t="n">
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
         <v>0.125</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>24</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>12</v>
       </c>
       <c r="C92" t="s">
@@ -2593,18 +2628,18 @@
       <c r="E92" t="s">
         <v>10</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>7</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>0.875</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>24</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>12</v>
       </c>
       <c r="C93" t="s">
@@ -2616,18 +2651,18 @@
       <c r="E93" t="s">
         <v>11</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>3</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>0.375</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>24</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>12</v>
       </c>
       <c r="C94" t="s">
@@ -2639,18 +2674,18 @@
       <c r="E94" t="s">
         <v>10</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>6</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>0.75</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>24</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>12</v>
       </c>
       <c r="C95" t="s">
@@ -2662,18 +2697,18 @@
       <c r="E95" t="s">
         <v>11</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>3</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>0.375</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>24</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>12</v>
       </c>
       <c r="C96" t="s">
@@ -2685,18 +2720,18 @@
       <c r="E96" t="s">
         <v>10</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>4</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>0.5</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>24</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>12</v>
       </c>
       <c r="C97" t="s">
@@ -2708,18 +2743,18 @@
       <c r="E97" t="s">
         <v>11</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>2</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>0.25</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>25</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>13</v>
       </c>
       <c r="C98" t="s">
@@ -2731,18 +2766,18 @@
       <c r="E98" t="s">
         <v>10</v>
       </c>
-      <c r="F98" t="n">
-        <v>8</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
+      <c r="F98">
+        <v>8</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>25</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>13</v>
       </c>
       <c r="C99" t="s">
@@ -2754,18 +2789,18 @@
       <c r="E99" t="s">
         <v>11</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>4</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>0.5</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>25</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>13</v>
       </c>
       <c r="C100" t="s">
@@ -2777,18 +2812,18 @@
       <c r="E100" t="s">
         <v>10</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>5</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>0.625</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>25</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>13</v>
       </c>
       <c r="C101" t="s">
@@ -2800,18 +2835,18 @@
       <c r="E101" t="s">
         <v>11</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>2</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>0.25</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>25</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>13</v>
       </c>
       <c r="C102" t="s">
@@ -2823,18 +2858,18 @@
       <c r="E102" t="s">
         <v>10</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>3</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>0.375</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>25</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>13</v>
       </c>
       <c r="C103" t="s">
@@ -2846,18 +2881,18 @@
       <c r="E103" t="s">
         <v>11</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103">
         <v>6</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G103">
         <v>0.75</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>25</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>13</v>
       </c>
       <c r="C104" t="s">
@@ -2869,18 +2904,18 @@
       <c r="E104" t="s">
         <v>10</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104">
         <v>7</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G104">
         <v>0.875</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>25</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>13</v>
       </c>
       <c r="C105" t="s">
@@ -2892,18 +2927,18 @@
       <c r="E105" t="s">
         <v>11</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105">
         <v>2</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105">
         <v>0.25</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>25</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>13</v>
       </c>
       <c r="C106" t="s">
@@ -2915,18 +2950,18 @@
       <c r="E106" t="s">
         <v>10</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106">
         <v>4</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G106">
         <v>0.5</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>25</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>13</v>
       </c>
       <c r="C107" t="s">
@@ -2938,18 +2973,18 @@
       <c r="E107" t="s">
         <v>11</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107">
         <v>2</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G107">
         <v>0.25</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>25</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>13</v>
       </c>
       <c r="C108" t="s">
@@ -2961,18 +2996,18 @@
       <c r="E108" t="s">
         <v>10</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108">
         <v>6</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G108">
         <v>0.75</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>25</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>13</v>
       </c>
       <c r="C109" t="s">
@@ -2984,18 +3019,18 @@
       <c r="E109" t="s">
         <v>11</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109">
         <v>2</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G109">
         <v>0.25</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>26</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>13</v>
       </c>
       <c r="C110" t="s">
@@ -3007,18 +3042,18 @@
       <c r="E110" t="s">
         <v>10</v>
       </c>
-      <c r="F110" t="n">
-        <v>8</v>
-      </c>
-      <c r="G110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
+      <c r="F110">
+        <v>8</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>26</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>13</v>
       </c>
       <c r="C111" t="s">
@@ -3030,18 +3065,18 @@
       <c r="E111" t="s">
         <v>11</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111">
         <v>6</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G111">
         <v>0.75</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>26</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>13</v>
       </c>
       <c r="C112" t="s">
@@ -3053,18 +3088,18 @@
       <c r="E112" t="s">
         <v>10</v>
       </c>
-      <c r="F112" t="n">
-        <v>8</v>
-      </c>
-      <c r="G112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
+      <c r="F112">
+        <v>8</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>26</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>13</v>
       </c>
       <c r="C113" t="s">
@@ -3076,18 +3111,18 @@
       <c r="E113" t="s">
         <v>11</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113">
         <v>6</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G113">
         <v>0.75</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>26</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>13</v>
       </c>
       <c r="C114" t="s">
@@ -3099,18 +3134,18 @@
       <c r="E114" t="s">
         <v>10</v>
       </c>
-      <c r="F114" t="n">
-        <v>8</v>
-      </c>
-      <c r="G114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
+      <c r="F114">
+        <v>8</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>26</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>13</v>
       </c>
       <c r="C115" t="s">
@@ -3122,18 +3157,18 @@
       <c r="E115" t="s">
         <v>11</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115">
         <v>4</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G115">
         <v>0.5</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>26</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>13</v>
       </c>
       <c r="C116" t="s">
@@ -3145,18 +3180,18 @@
       <c r="E116" t="s">
         <v>10</v>
       </c>
-      <c r="F116" t="n">
-        <v>8</v>
-      </c>
-      <c r="G116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
+      <c r="F116">
+        <v>8</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>26</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>13</v>
       </c>
       <c r="C117" t="s">
@@ -3168,18 +3203,18 @@
       <c r="E117" t="s">
         <v>11</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F117">
         <v>4</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G117">
         <v>0.5</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>26</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>13</v>
       </c>
       <c r="C118" t="s">
@@ -3191,18 +3226,18 @@
       <c r="E118" t="s">
         <v>10</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118">
         <v>5</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G118">
         <v>0.625</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>26</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>13</v>
       </c>
       <c r="C119" t="s">
@@ -3214,18 +3249,18 @@
       <c r="E119" t="s">
         <v>11</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F119">
         <v>6</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G119">
         <v>0.75</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>26</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>13</v>
       </c>
       <c r="C120" t="s">
@@ -3237,18 +3272,18 @@
       <c r="E120" t="s">
         <v>10</v>
       </c>
-      <c r="F120" t="n">
-        <v>8</v>
-      </c>
-      <c r="G120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
+      <c r="F120">
+        <v>8</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>26</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>13</v>
       </c>
       <c r="C121" t="s">
@@ -3260,18 +3295,18 @@
       <c r="E121" t="s">
         <v>11</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121">
         <v>6</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G121">
         <v>0.75</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>27</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>14</v>
       </c>
       <c r="C122" t="s">
@@ -3283,18 +3318,18 @@
       <c r="E122" t="s">
         <v>10</v>
       </c>
-      <c r="F122" t="n">
-        <v>8</v>
-      </c>
-      <c r="G122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
+      <c r="F122">
+        <v>8</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>27</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>14</v>
       </c>
       <c r="C123" t="s">
@@ -3306,18 +3341,18 @@
       <c r="E123" t="s">
         <v>11</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F123">
         <v>4</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G123">
         <v>0.5</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>27</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>14</v>
       </c>
       <c r="C124" t="s">
@@ -3329,18 +3364,18 @@
       <c r="E124" t="s">
         <v>10</v>
       </c>
-      <c r="F124" t="n">
-        <v>8</v>
-      </c>
-      <c r="G124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
+      <c r="F124">
+        <v>8</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>27</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>14</v>
       </c>
       <c r="C125" t="s">
@@ -3352,18 +3387,18 @@
       <c r="E125" t="s">
         <v>11</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F125">
         <v>2</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G125">
         <v>0.25</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>27</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>14</v>
       </c>
       <c r="C126" t="s">
@@ -3375,18 +3410,18 @@
       <c r="E126" t="s">
         <v>10</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F126">
         <v>5</v>
       </c>
-      <c r="G126" t="n">
+      <c r="G126">
         <v>0.625</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>27</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>14</v>
       </c>
       <c r="C127" t="s">
@@ -3398,18 +3433,18 @@
       <c r="E127" t="s">
         <v>11</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F127">
         <v>5</v>
       </c>
-      <c r="G127" t="n">
+      <c r="G127">
         <v>0.625</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>27</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>14</v>
       </c>
       <c r="C128" t="s">
@@ -3421,18 +3456,18 @@
       <c r="E128" t="s">
         <v>10</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F128">
         <v>6</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G128">
         <v>0.75</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>27</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>14</v>
       </c>
       <c r="C129" t="s">
@@ -3444,18 +3479,18 @@
       <c r="E129" t="s">
         <v>11</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F129">
         <v>4</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G129">
         <v>0.5</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>27</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>14</v>
       </c>
       <c r="C130" t="s">
@@ -3467,18 +3502,18 @@
       <c r="E130" t="s">
         <v>10</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F130">
         <v>5</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G130">
         <v>0.625</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>27</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>14</v>
       </c>
       <c r="C131" t="s">
@@ -3490,18 +3525,18 @@
       <c r="E131" t="s">
         <v>11</v>
       </c>
-      <c r="F131" t="n">
+      <c r="F131">
         <v>5</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G131">
         <v>0.625</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>27</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>14</v>
       </c>
       <c r="C132" t="s">
@@ -3513,18 +3548,18 @@
       <c r="E132" t="s">
         <v>10</v>
       </c>
-      <c r="F132" t="n">
-        <v>8</v>
-      </c>
-      <c r="G132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
+      <c r="F132">
+        <v>8</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>27</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>14</v>
       </c>
       <c r="C133" t="s">
@@ -3536,18 +3571,18 @@
       <c r="E133" t="s">
         <v>11</v>
       </c>
-      <c r="F133" t="n">
-        <v>1</v>
-      </c>
-      <c r="G133" t="n">
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
         <v>0.125</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>28</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>14</v>
       </c>
       <c r="C134" t="s">
@@ -3559,18 +3594,18 @@
       <c r="E134" t="s">
         <v>10</v>
       </c>
-      <c r="F134" t="n">
-        <v>8</v>
-      </c>
-      <c r="G134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
+      <c r="F134">
+        <v>8</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>28</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>14</v>
       </c>
       <c r="C135" t="s">
@@ -3582,18 +3617,18 @@
       <c r="E135" t="s">
         <v>11</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F135">
         <v>7</v>
       </c>
-      <c r="G135" t="n">
+      <c r="G135">
         <v>0.875</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>28</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>14</v>
       </c>
       <c r="C136" t="s">
@@ -3605,18 +3640,18 @@
       <c r="E136" t="s">
         <v>10</v>
       </c>
-      <c r="F136" t="n">
-        <v>8</v>
-      </c>
-      <c r="G136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
+      <c r="F136">
+        <v>8</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>28</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>14</v>
       </c>
       <c r="C137" t="s">
@@ -3628,18 +3663,18 @@
       <c r="E137" t="s">
         <v>11</v>
       </c>
-      <c r="F137" t="n">
-        <v>8</v>
-      </c>
-      <c r="G137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
+      <c r="F137">
+        <v>8</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>28</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>14</v>
       </c>
       <c r="C138" t="s">
@@ -3651,18 +3686,18 @@
       <c r="E138" t="s">
         <v>10</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F138">
         <v>5</v>
       </c>
-      <c r="G138" t="n">
+      <c r="G138">
         <v>0.625</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>28</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>14</v>
       </c>
       <c r="C139" t="s">
@@ -3674,18 +3709,18 @@
       <c r="E139" t="s">
         <v>11</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F139">
         <v>4</v>
       </c>
-      <c r="G139" t="n">
+      <c r="G139">
         <v>0.5</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>28</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>14</v>
       </c>
       <c r="C140" t="s">
@@ -3697,18 +3732,18 @@
       <c r="E140" t="s">
         <v>10</v>
       </c>
-      <c r="F140" t="n">
+      <c r="F140">
         <v>6</v>
       </c>
-      <c r="G140" t="n">
+      <c r="G140">
         <v>0.75</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>28</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>14</v>
       </c>
       <c r="C141" t="s">
@@ -3720,18 +3755,18 @@
       <c r="E141" t="s">
         <v>11</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F141">
         <v>5</v>
       </c>
-      <c r="G141" t="n">
+      <c r="G141">
         <v>0.625</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>28</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>14</v>
       </c>
       <c r="C142" t="s">
@@ -3743,18 +3778,18 @@
       <c r="E142" t="s">
         <v>10</v>
       </c>
-      <c r="F142" t="n">
+      <c r="F142">
         <v>7</v>
       </c>
-      <c r="G142" t="n">
+      <c r="G142">
         <v>0.875</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>28</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>14</v>
       </c>
       <c r="C143" t="s">
@@ -3766,18 +3801,18 @@
       <c r="E143" t="s">
         <v>11</v>
       </c>
-      <c r="F143" t="n">
+      <c r="F143">
         <v>2</v>
       </c>
-      <c r="G143" t="n">
+      <c r="G143">
         <v>0.25</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>28</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>14</v>
       </c>
       <c r="C144" t="s">
@@ -3789,18 +3824,18 @@
       <c r="E144" t="s">
         <v>10</v>
       </c>
-      <c r="F144" t="n">
+      <c r="F144">
         <v>5</v>
       </c>
-      <c r="G144" t="n">
+      <c r="G144">
         <v>0.625</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>28</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>14</v>
       </c>
       <c r="C145" t="s">
@@ -3812,18 +3847,18 @@
       <c r="E145" t="s">
         <v>11</v>
       </c>
-      <c r="F145" t="n">
+      <c r="F145">
         <v>4</v>
       </c>
-      <c r="G145" t="n">
+      <c r="G145">
         <v>0.5</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>29</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>15</v>
       </c>
       <c r="C146" t="s">
@@ -3835,18 +3870,18 @@
       <c r="E146" t="s">
         <v>10</v>
       </c>
-      <c r="F146" t="n">
-        <v>8</v>
-      </c>
-      <c r="G146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
+      <c r="F146">
+        <v>8</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>29</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>15</v>
       </c>
       <c r="C147" t="s">
@@ -3858,18 +3893,18 @@
       <c r="E147" t="s">
         <v>11</v>
       </c>
-      <c r="F147" t="n">
+      <c r="F147">
         <v>4</v>
       </c>
-      <c r="G147" t="n">
+      <c r="G147">
         <v>0.5</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>29</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>15</v>
       </c>
       <c r="C148" t="s">
@@ -3881,18 +3916,18 @@
       <c r="E148" t="s">
         <v>10</v>
       </c>
-      <c r="F148" t="n">
+      <c r="F148">
         <v>7</v>
       </c>
-      <c r="G148" t="n">
+      <c r="G148">
         <v>0.875</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>29</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>15</v>
       </c>
       <c r="C149" t="s">
@@ -3904,18 +3939,18 @@
       <c r="E149" t="s">
         <v>11</v>
       </c>
-      <c r="F149" t="n">
+      <c r="F149">
         <v>6</v>
       </c>
-      <c r="G149" t="n">
+      <c r="G149">
         <v>0.75</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>29</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>15</v>
       </c>
       <c r="C150" t="s">
@@ -3927,18 +3962,18 @@
       <c r="E150" t="s">
         <v>10</v>
       </c>
-      <c r="F150" t="n">
-        <v>8</v>
-      </c>
-      <c r="G150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
+      <c r="F150">
+        <v>8</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>29</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>15</v>
       </c>
       <c r="C151" t="s">
@@ -3950,18 +3985,18 @@
       <c r="E151" t="s">
         <v>11</v>
       </c>
-      <c r="F151" t="n">
-        <v>1</v>
-      </c>
-      <c r="G151" t="n">
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
         <v>0.125</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>29</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>15</v>
       </c>
       <c r="C152" t="s">
@@ -3973,18 +4008,18 @@
       <c r="E152" t="s">
         <v>10</v>
       </c>
-      <c r="F152" t="n">
-        <v>8</v>
-      </c>
-      <c r="G152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
+      <c r="F152">
+        <v>8</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>29</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>15</v>
       </c>
       <c r="C153" t="s">
@@ -3996,18 +4031,18 @@
       <c r="E153" t="s">
         <v>11</v>
       </c>
-      <c r="F153" t="n">
-        <v>8</v>
-      </c>
-      <c r="G153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
+      <c r="F153">
+        <v>8</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>29</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>15</v>
       </c>
       <c r="C154" t="s">
@@ -4019,18 +4054,18 @@
       <c r="E154" t="s">
         <v>10</v>
       </c>
-      <c r="F154" t="n">
+      <c r="F154">
         <v>6</v>
       </c>
-      <c r="G154" t="n">
+      <c r="G154">
         <v>0.75</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>29</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>15</v>
       </c>
       <c r="C155" t="s">
@@ -4042,18 +4077,18 @@
       <c r="E155" t="s">
         <v>11</v>
       </c>
-      <c r="F155" t="n">
+      <c r="F155">
         <v>5</v>
       </c>
-      <c r="G155" t="n">
+      <c r="G155">
         <v>0.625</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>29</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>15</v>
       </c>
       <c r="C156" t="s">
@@ -4065,18 +4100,18 @@
       <c r="E156" t="s">
         <v>10</v>
       </c>
-      <c r="F156" t="n">
+      <c r="F156">
         <v>6</v>
       </c>
-      <c r="G156" t="n">
+      <c r="G156">
         <v>0.75</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>29</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>15</v>
       </c>
       <c r="C157" t="s">
@@ -4088,18 +4123,18 @@
       <c r="E157" t="s">
         <v>11</v>
       </c>
-      <c r="F157" t="n">
+      <c r="F157">
         <v>4</v>
       </c>
-      <c r="G157" t="n">
+      <c r="G157">
         <v>0.5</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>30</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>15</v>
       </c>
       <c r="C158" t="s">
@@ -4111,18 +4146,18 @@
       <c r="E158" t="s">
         <v>10</v>
       </c>
-      <c r="F158" t="n">
+      <c r="F158">
         <v>6</v>
       </c>
-      <c r="G158" t="n">
+      <c r="G158">
         <v>0.75</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>30</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>15</v>
       </c>
       <c r="C159" t="s">
@@ -4134,18 +4169,18 @@
       <c r="E159" t="s">
         <v>11</v>
       </c>
-      <c r="F159" t="n">
+      <c r="F159">
         <v>6</v>
       </c>
-      <c r="G159" t="n">
+      <c r="G159">
         <v>0.75</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>30</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>15</v>
       </c>
       <c r="C160" t="s">
@@ -4157,18 +4192,18 @@
       <c r="E160" t="s">
         <v>10</v>
       </c>
-      <c r="F160" t="n">
+      <c r="F160">
         <v>7</v>
       </c>
-      <c r="G160" t="n">
+      <c r="G160">
         <v>0.875</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>30</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>15</v>
       </c>
       <c r="C161" t="s">
@@ -4180,18 +4215,18 @@
       <c r="E161" t="s">
         <v>11</v>
       </c>
-      <c r="F161" t="n">
+      <c r="F161">
         <v>3</v>
       </c>
-      <c r="G161" t="n">
+      <c r="G161">
         <v>0.375</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>30</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>15</v>
       </c>
       <c r="C162" t="s">
@@ -4203,18 +4238,18 @@
       <c r="E162" t="s">
         <v>10</v>
       </c>
-      <c r="F162" t="n">
+      <c r="F162">
         <v>7</v>
       </c>
-      <c r="G162" t="n">
+      <c r="G162">
         <v>0.875</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>30</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>15</v>
       </c>
       <c r="C163" t="s">
@@ -4226,18 +4261,18 @@
       <c r="E163" t="s">
         <v>11</v>
       </c>
-      <c r="F163" t="n">
+      <c r="F163">
         <v>6</v>
       </c>
-      <c r="G163" t="n">
+      <c r="G163">
         <v>0.75</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>30</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>15</v>
       </c>
       <c r="C164" t="s">
@@ -4249,18 +4284,18 @@
       <c r="E164" t="s">
         <v>10</v>
       </c>
-      <c r="F164" t="n">
-        <v>8</v>
-      </c>
-      <c r="G164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
+      <c r="F164">
+        <v>8</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>30</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>15</v>
       </c>
       <c r="C165" t="s">
@@ -4272,18 +4307,18 @@
       <c r="E165" t="s">
         <v>11</v>
       </c>
-      <c r="F165" t="n">
+      <c r="F165">
         <v>3</v>
       </c>
-      <c r="G165" t="n">
+      <c r="G165">
         <v>0.375</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>30</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>15</v>
       </c>
       <c r="C166" t="s">
@@ -4295,18 +4330,18 @@
       <c r="E166" t="s">
         <v>10</v>
       </c>
-      <c r="F166" t="n">
-        <v>1</v>
-      </c>
-      <c r="G166" t="n">
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
         <v>0.125</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>30</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>15</v>
       </c>
       <c r="C167" t="s">
@@ -4318,18 +4353,18 @@
       <c r="E167" t="s">
         <v>11</v>
       </c>
-      <c r="F167" t="n">
+      <c r="F167">
         <v>2</v>
       </c>
-      <c r="G167" t="n">
+      <c r="G167">
         <v>0.25</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>30</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>15</v>
       </c>
       <c r="C168" t="s">
@@ -4341,18 +4376,18 @@
       <c r="E168" t="s">
         <v>10</v>
       </c>
-      <c r="F168" t="n">
-        <v>8</v>
-      </c>
-      <c r="G168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
+      <c r="F168">
+        <v>8</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>30</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>15</v>
       </c>
       <c r="C169" t="s">
@@ -4364,18 +4399,18 @@
       <c r="E169" t="s">
         <v>11</v>
       </c>
-      <c r="F169" t="n">
+      <c r="F169">
         <v>2</v>
       </c>
-      <c r="G169" t="n">
+      <c r="G169">
         <v>0.25</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>31</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>2</v>
       </c>
       <c r="C170" t="s">
@@ -4387,18 +4422,18 @@
       <c r="E170" t="s">
         <v>10</v>
       </c>
-      <c r="F170" t="n">
-        <v>8</v>
-      </c>
-      <c r="G170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
+      <c r="F170">
+        <v>8</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>31</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>2</v>
       </c>
       <c r="C171" t="s">
@@ -4410,18 +4445,18 @@
       <c r="E171" t="s">
         <v>11</v>
       </c>
-      <c r="F171" t="n">
+      <c r="F171">
         <v>5</v>
       </c>
-      <c r="G171" t="n">
+      <c r="G171">
         <v>0.625</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>31</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>2</v>
       </c>
       <c r="C172" t="s">
@@ -4433,18 +4468,18 @@
       <c r="E172" t="s">
         <v>10</v>
       </c>
-      <c r="F172" t="n">
+      <c r="F172">
         <v>5</v>
       </c>
-      <c r="G172" t="n">
+      <c r="G172">
         <v>0.625</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>31</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>2</v>
       </c>
       <c r="C173" t="s">
@@ -4456,18 +4491,18 @@
       <c r="E173" t="s">
         <v>11</v>
       </c>
-      <c r="F173" t="n">
+      <c r="F173">
         <v>3</v>
       </c>
-      <c r="G173" t="n">
+      <c r="G173">
         <v>0.375</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>31</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>2</v>
       </c>
       <c r="C174" t="s">
@@ -4479,18 +4514,18 @@
       <c r="E174" t="s">
         <v>10</v>
       </c>
-      <c r="F174" t="n">
+      <c r="F174">
         <v>7</v>
       </c>
-      <c r="G174" t="n">
+      <c r="G174">
         <v>0.875</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>31</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>2</v>
       </c>
       <c r="C175" t="s">
@@ -4502,18 +4537,18 @@
       <c r="E175" t="s">
         <v>11</v>
       </c>
-      <c r="F175" t="n">
+      <c r="F175">
         <v>3</v>
       </c>
-      <c r="G175" t="n">
+      <c r="G175">
         <v>0.375</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>31</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>2</v>
       </c>
       <c r="C176" t="s">
@@ -4525,18 +4560,18 @@
       <c r="E176" t="s">
         <v>10</v>
       </c>
-      <c r="F176" t="n">
+      <c r="F176">
         <v>3</v>
       </c>
-      <c r="G176" t="n">
+      <c r="G176">
         <v>0.375</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>31</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>2</v>
       </c>
       <c r="C177" t="s">
@@ -4548,18 +4583,18 @@
       <c r="E177" t="s">
         <v>11</v>
       </c>
-      <c r="F177" t="n">
+      <c r="F177">
         <v>2</v>
       </c>
-      <c r="G177" t="n">
+      <c r="G177">
         <v>0.25</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>31</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>2</v>
       </c>
       <c r="C178" t="s">
@@ -4571,18 +4606,18 @@
       <c r="E178" t="s">
         <v>10</v>
       </c>
-      <c r="F178" t="n">
+      <c r="F178">
         <v>4</v>
       </c>
-      <c r="G178" t="n">
+      <c r="G178">
         <v>0.5</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>31</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>2</v>
       </c>
       <c r="C179" t="s">
@@ -4594,18 +4629,18 @@
       <c r="E179" t="s">
         <v>11</v>
       </c>
-      <c r="F179" t="n">
+      <c r="F179">
         <v>4</v>
       </c>
-      <c r="G179" t="n">
+      <c r="G179">
         <v>0.5</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>31</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>2</v>
       </c>
       <c r="C180" t="s">
@@ -4617,18 +4652,18 @@
       <c r="E180" t="s">
         <v>10</v>
       </c>
-      <c r="F180" t="n">
+      <c r="F180">
         <v>5</v>
       </c>
-      <c r="G180" t="n">
+      <c r="G180">
         <v>0.625</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>31</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>2</v>
       </c>
       <c r="C181" t="s">
@@ -4640,18 +4675,18 @@
       <c r="E181" t="s">
         <v>11</v>
       </c>
-      <c r="F181" t="n">
-        <v>1</v>
-      </c>
-      <c r="G181" t="n">
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181">
         <v>0.125</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>32</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>2</v>
       </c>
       <c r="C182" t="s">
@@ -4663,18 +4698,18 @@
       <c r="E182" t="s">
         <v>10</v>
       </c>
-      <c r="F182" t="n">
+      <c r="F182">
         <v>7</v>
       </c>
-      <c r="G182" t="n">
+      <c r="G182">
         <v>0.875</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>32</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>2</v>
       </c>
       <c r="C183" t="s">
@@ -4686,18 +4721,18 @@
       <c r="E183" t="s">
         <v>11</v>
       </c>
-      <c r="F183" t="n">
+      <c r="F183">
         <v>2</v>
       </c>
-      <c r="G183" t="n">
+      <c r="G183">
         <v>0.25</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>32</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>2</v>
       </c>
       <c r="C184" t="s">
@@ -4709,18 +4744,18 @@
       <c r="E184" t="s">
         <v>10</v>
       </c>
-      <c r="F184" t="n">
+      <c r="F184">
         <v>7</v>
       </c>
-      <c r="G184" t="n">
+      <c r="G184">
         <v>0.875</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>32</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>2</v>
       </c>
       <c r="C185" t="s">
@@ -4732,18 +4767,18 @@
       <c r="E185" t="s">
         <v>11</v>
       </c>
-      <c r="F185" t="n">
-        <v>1</v>
-      </c>
-      <c r="G185" t="n">
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="G185">
         <v>0.125</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>32</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>2</v>
       </c>
       <c r="C186" t="s">
@@ -4755,18 +4790,18 @@
       <c r="E186" t="s">
         <v>10</v>
       </c>
-      <c r="F186" t="n">
+      <c r="F186">
         <v>6</v>
       </c>
-      <c r="G186" t="n">
+      <c r="G186">
         <v>0.75</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>32</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>2</v>
       </c>
       <c r="C187" t="s">
@@ -4778,18 +4813,18 @@
       <c r="E187" t="s">
         <v>11</v>
       </c>
-      <c r="F187" t="n">
+      <c r="F187">
         <v>3</v>
       </c>
-      <c r="G187" t="n">
+      <c r="G187">
         <v>0.375</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>32</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>2</v>
       </c>
       <c r="C188" t="s">
@@ -4801,18 +4836,18 @@
       <c r="E188" t="s">
         <v>10</v>
       </c>
-      <c r="F188" t="n">
+      <c r="F188">
         <v>6</v>
       </c>
-      <c r="G188" t="n">
+      <c r="G188">
         <v>0.75</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>32</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>2</v>
       </c>
       <c r="C189" t="s">
@@ -4824,18 +4859,18 @@
       <c r="E189" t="s">
         <v>11</v>
       </c>
-      <c r="F189" t="n">
+      <c r="F189">
         <v>4</v>
       </c>
-      <c r="G189" t="n">
+      <c r="G189">
         <v>0.5</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>32</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>2</v>
       </c>
       <c r="C190" t="s">
@@ -4847,18 +4882,18 @@
       <c r="E190" t="s">
         <v>10</v>
       </c>
-      <c r="F190" t="n">
-        <v>8</v>
-      </c>
-      <c r="G190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
+      <c r="F190">
+        <v>8</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>32</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>2</v>
       </c>
       <c r="C191" t="s">
@@ -4870,18 +4905,18 @@
       <c r="E191" t="s">
         <v>11</v>
       </c>
-      <c r="F191" t="n">
+      <c r="F191">
         <v>5</v>
       </c>
-      <c r="G191" t="n">
+      <c r="G191">
         <v>0.625</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>32</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>2</v>
       </c>
       <c r="C192" t="s">
@@ -4893,18 +4928,18 @@
       <c r="E192" t="s">
         <v>10</v>
       </c>
-      <c r="F192" t="n">
+      <c r="F192">
         <v>2</v>
       </c>
-      <c r="G192" t="n">
+      <c r="G192">
         <v>0.25</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>32</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>2</v>
       </c>
       <c r="C193" t="s">
@@ -4916,18 +4951,18 @@
       <c r="E193" t="s">
         <v>11</v>
       </c>
-      <c r="F193" t="n">
+      <c r="F193">
         <v>2</v>
       </c>
-      <c r="G193" t="n">
+      <c r="G193">
         <v>0.25</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>33</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>3</v>
       </c>
       <c r="C194" t="s">
@@ -4939,18 +4974,18 @@
       <c r="E194" t="s">
         <v>10</v>
       </c>
-      <c r="F194" t="n">
-        <v>8</v>
-      </c>
-      <c r="G194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
+      <c r="F194">
+        <v>8</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>33</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>3</v>
       </c>
       <c r="C195" t="s">
@@ -4962,18 +4997,18 @@
       <c r="E195" t="s">
         <v>11</v>
       </c>
-      <c r="F195" t="n">
+      <c r="F195">
         <v>7</v>
       </c>
-      <c r="G195" t="n">
+      <c r="G195">
         <v>0.875</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>33</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>3</v>
       </c>
       <c r="C196" t="s">
@@ -4985,18 +5020,18 @@
       <c r="E196" t="s">
         <v>10</v>
       </c>
-      <c r="F196" t="n">
-        <v>8</v>
-      </c>
-      <c r="G196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
+      <c r="F196">
+        <v>8</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>33</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>3</v>
       </c>
       <c r="C197" t="s">
@@ -5008,18 +5043,18 @@
       <c r="E197" t="s">
         <v>11</v>
       </c>
-      <c r="F197" t="n">
+      <c r="F197">
         <v>6</v>
       </c>
-      <c r="G197" t="n">
+      <c r="G197">
         <v>0.75</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>33</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>3</v>
       </c>
       <c r="C198" t="s">
@@ -5031,18 +5066,18 @@
       <c r="E198" t="s">
         <v>10</v>
       </c>
-      <c r="F198" t="n">
+      <c r="F198">
         <v>5</v>
       </c>
-      <c r="G198" t="n">
+      <c r="G198">
         <v>0.625</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>33</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>3</v>
       </c>
       <c r="C199" t="s">
@@ -5054,18 +5089,18 @@
       <c r="E199" t="s">
         <v>11</v>
       </c>
-      <c r="F199" t="n">
+      <c r="F199">
         <v>3</v>
       </c>
-      <c r="G199" t="n">
+      <c r="G199">
         <v>0.375</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>33</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>3</v>
       </c>
       <c r="C200" t="s">
@@ -5077,18 +5112,18 @@
       <c r="E200" t="s">
         <v>10</v>
       </c>
-      <c r="F200" t="n">
+      <c r="F200">
         <v>7</v>
       </c>
-      <c r="G200" t="n">
+      <c r="G200">
         <v>0.875</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>33</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>3</v>
       </c>
       <c r="C201" t="s">
@@ -5100,18 +5135,18 @@
       <c r="E201" t="s">
         <v>11</v>
       </c>
-      <c r="F201" t="n">
+      <c r="F201">
         <v>6</v>
       </c>
-      <c r="G201" t="n">
+      <c r="G201">
         <v>0.75</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>33</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>3</v>
       </c>
       <c r="C202" t="s">
@@ -5123,18 +5158,18 @@
       <c r="E202" t="s">
         <v>10</v>
       </c>
-      <c r="F202" t="n">
-        <v>8</v>
-      </c>
-      <c r="G202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
+      <c r="F202">
+        <v>8</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>33</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>3</v>
       </c>
       <c r="C203" t="s">
@@ -5146,18 +5181,18 @@
       <c r="E203" t="s">
         <v>11</v>
       </c>
-      <c r="F203" t="n">
+      <c r="F203">
         <v>5</v>
       </c>
-      <c r="G203" t="n">
+      <c r="G203">
         <v>0.625</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>33</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>3</v>
       </c>
       <c r="C204" t="s">
@@ -5169,18 +5204,18 @@
       <c r="E204" t="s">
         <v>10</v>
       </c>
-      <c r="F204" t="n">
+      <c r="F204">
         <v>4</v>
       </c>
-      <c r="G204" t="n">
+      <c r="G204">
         <v>0.5</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>33</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>3</v>
       </c>
       <c r="C205" t="s">
@@ -5192,18 +5227,18 @@
       <c r="E205" t="s">
         <v>11</v>
       </c>
-      <c r="F205" t="n">
+      <c r="F205">
         <v>4</v>
       </c>
-      <c r="G205" t="n">
+      <c r="G205">
         <v>0.5</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>34</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>3</v>
       </c>
       <c r="C206" t="s">
@@ -5215,18 +5250,18 @@
       <c r="E206" t="s">
         <v>10</v>
       </c>
-      <c r="F206" t="n">
-        <v>8</v>
-      </c>
-      <c r="G206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
+      <c r="F206">
+        <v>8</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>34</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>3</v>
       </c>
       <c r="C207" t="s">
@@ -5238,18 +5273,18 @@
       <c r="E207" t="s">
         <v>11</v>
       </c>
-      <c r="F207" t="n">
+      <c r="F207">
         <v>4</v>
       </c>
-      <c r="G207" t="n">
+      <c r="G207">
         <v>0.5</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>34</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>3</v>
       </c>
       <c r="C208" t="s">
@@ -5261,18 +5296,18 @@
       <c r="E208" t="s">
         <v>10</v>
       </c>
-      <c r="F208" t="n">
+      <c r="F208">
         <v>6</v>
       </c>
-      <c r="G208" t="n">
+      <c r="G208">
         <v>0.75</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>34</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>3</v>
       </c>
       <c r="C209" t="s">
@@ -5284,18 +5319,18 @@
       <c r="E209" t="s">
         <v>11</v>
       </c>
-      <c r="F209" t="n">
-        <v>1</v>
-      </c>
-      <c r="G209" t="n">
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209">
         <v>0.125</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>34</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>3</v>
       </c>
       <c r="C210" t="s">
@@ -5307,18 +5342,18 @@
       <c r="E210" t="s">
         <v>10</v>
       </c>
-      <c r="F210" t="n">
+      <c r="F210">
         <v>4</v>
       </c>
-      <c r="G210" t="n">
+      <c r="G210">
         <v>0.5</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>34</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>3</v>
       </c>
       <c r="C211" t="s">
@@ -5330,18 +5365,18 @@
       <c r="E211" t="s">
         <v>11</v>
       </c>
-      <c r="F211" t="n">
+      <c r="F211">
         <v>7</v>
       </c>
-      <c r="G211" t="n">
+      <c r="G211">
         <v>0.875</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>34</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>3</v>
       </c>
       <c r="C212" t="s">
@@ -5353,18 +5388,18 @@
       <c r="E212" t="s">
         <v>10</v>
       </c>
-      <c r="F212" t="n">
+      <c r="F212">
         <v>6</v>
       </c>
-      <c r="G212" t="n">
+      <c r="G212">
         <v>0.75</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>34</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>3</v>
       </c>
       <c r="C213" t="s">
@@ -5376,18 +5411,18 @@
       <c r="E213" t="s">
         <v>11</v>
       </c>
-      <c r="F213" t="n">
+      <c r="F213">
         <v>2</v>
       </c>
-      <c r="G213" t="n">
+      <c r="G213">
         <v>0.25</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>34</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>3</v>
       </c>
       <c r="C214" t="s">
@@ -5399,18 +5434,18 @@
       <c r="E214" t="s">
         <v>10</v>
       </c>
-      <c r="F214" t="n">
+      <c r="F214">
         <v>6</v>
       </c>
-      <c r="G214" t="n">
+      <c r="G214">
         <v>0.75</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>34</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>3</v>
       </c>
       <c r="C215" t="s">
@@ -5422,18 +5457,18 @@
       <c r="E215" t="s">
         <v>11</v>
       </c>
-      <c r="F215" t="n">
+      <c r="F215">
         <v>7</v>
       </c>
-      <c r="G215" t="n">
+      <c r="G215">
         <v>0.875</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>34</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>3</v>
       </c>
       <c r="C216" t="s">
@@ -5445,18 +5480,18 @@
       <c r="E216" t="s">
         <v>10</v>
       </c>
-      <c r="F216" t="n">
+      <c r="F216">
         <v>6</v>
       </c>
-      <c r="G216" t="n">
+      <c r="G216">
         <v>0.75</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>34</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>3</v>
       </c>
       <c r="C217" t="s">
@@ -5468,18 +5503,18 @@
       <c r="E217" t="s">
         <v>11</v>
       </c>
-      <c r="F217" t="n">
+      <c r="F217">
         <v>3</v>
       </c>
-      <c r="G217" t="n">
+      <c r="G217">
         <v>0.375</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>35</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>4</v>
       </c>
       <c r="C218" t="s">
@@ -5491,18 +5526,18 @@
       <c r="E218" t="s">
         <v>10</v>
       </c>
-      <c r="F218" t="n">
-        <v>8</v>
-      </c>
-      <c r="G218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
+      <c r="F218">
+        <v>8</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>35</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>4</v>
       </c>
       <c r="C219" t="s">
@@ -5514,18 +5549,18 @@
       <c r="E219" t="s">
         <v>11</v>
       </c>
-      <c r="F219" t="n">
-        <v>1</v>
-      </c>
-      <c r="G219" t="n">
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="G219">
         <v>0.125</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>35</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>4</v>
       </c>
       <c r="C220" t="s">
@@ -5537,18 +5572,18 @@
       <c r="E220" t="s">
         <v>10</v>
       </c>
-      <c r="F220" t="n">
+      <c r="F220">
         <v>6</v>
       </c>
-      <c r="G220" t="n">
+      <c r="G220">
         <v>0.75</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>35</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>4</v>
       </c>
       <c r="C221" t="s">
@@ -5560,18 +5595,18 @@
       <c r="E221" t="s">
         <v>11</v>
       </c>
-      <c r="F221" t="n">
+      <c r="F221">
         <v>7</v>
       </c>
-      <c r="G221" t="n">
+      <c r="G221">
         <v>0.875</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>35</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>4</v>
       </c>
       <c r="C222" t="s">
@@ -5583,18 +5618,18 @@
       <c r="E222" t="s">
         <v>10</v>
       </c>
-      <c r="F222" t="n">
+      <c r="F222">
         <v>6</v>
       </c>
-      <c r="G222" t="n">
+      <c r="G222">
         <v>0.75</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>35</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>4</v>
       </c>
       <c r="C223" t="s">
@@ -5606,18 +5641,18 @@
       <c r="E223" t="s">
         <v>11</v>
       </c>
-      <c r="F223" t="n">
+      <c r="F223">
         <v>3</v>
       </c>
-      <c r="G223" t="n">
+      <c r="G223">
         <v>0.375</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>35</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>4</v>
       </c>
       <c r="C224" t="s">
@@ -5629,18 +5664,18 @@
       <c r="E224" t="s">
         <v>10</v>
       </c>
-      <c r="F224" t="n">
+      <c r="F224">
         <v>5</v>
       </c>
-      <c r="G224" t="n">
+      <c r="G224">
         <v>0.625</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>35</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>4</v>
       </c>
       <c r="C225" t="s">
@@ -5652,18 +5687,18 @@
       <c r="E225" t="s">
         <v>11</v>
       </c>
-      <c r="F225" t="n">
+      <c r="F225">
         <v>2</v>
       </c>
-      <c r="G225" t="n">
+      <c r="G225">
         <v>0.25</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>35</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>4</v>
       </c>
       <c r="C226" t="s">
@@ -5675,18 +5710,18 @@
       <c r="E226" t="s">
         <v>10</v>
       </c>
-      <c r="F226" t="n">
+      <c r="F226">
         <v>0</v>
       </c>
-      <c r="G226" t="n">
+      <c r="G226">
         <v>0</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>35</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>4</v>
       </c>
       <c r="C227" t="s">
@@ -5698,18 +5733,18 @@
       <c r="E227" t="s">
         <v>11</v>
       </c>
-      <c r="F227" t="n">
+      <c r="F227">
         <v>3</v>
       </c>
-      <c r="G227" t="n">
+      <c r="G227">
         <v>0.375</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>35</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>4</v>
       </c>
       <c r="C228" t="s">
@@ -5721,18 +5756,18 @@
       <c r="E228" t="s">
         <v>10</v>
       </c>
-      <c r="F228" t="n">
+      <c r="F228">
         <v>4</v>
       </c>
-      <c r="G228" t="n">
+      <c r="G228">
         <v>0.5</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>35</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>4</v>
       </c>
       <c r="C229" t="s">
@@ -5744,18 +5779,18 @@
       <c r="E229" t="s">
         <v>11</v>
       </c>
-      <c r="F229" t="n">
+      <c r="F229">
         <v>5</v>
       </c>
-      <c r="G229" t="n">
+      <c r="G229">
         <v>0.625</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>36</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>4</v>
       </c>
       <c r="C230" t="s">
@@ -5767,18 +5802,18 @@
       <c r="E230" t="s">
         <v>10</v>
       </c>
-      <c r="F230" t="n">
-        <v>8</v>
-      </c>
-      <c r="G230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
+      <c r="F230">
+        <v>8</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>36</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>4</v>
       </c>
       <c r="C231" t="s">
@@ -5790,18 +5825,18 @@
       <c r="E231" t="s">
         <v>11</v>
       </c>
-      <c r="F231" t="n">
+      <c r="F231">
         <v>5</v>
       </c>
-      <c r="G231" t="n">
+      <c r="G231">
         <v>0.625</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>36</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>4</v>
       </c>
       <c r="C232" t="s">
@@ -5813,18 +5848,18 @@
       <c r="E232" t="s">
         <v>10</v>
       </c>
-      <c r="F232" t="n">
+      <c r="F232">
         <v>5</v>
       </c>
-      <c r="G232" t="n">
+      <c r="G232">
         <v>0.625</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>36</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>4</v>
       </c>
       <c r="C233" t="s">
@@ -5836,18 +5871,18 @@
       <c r="E233" t="s">
         <v>11</v>
       </c>
-      <c r="F233" t="n">
+      <c r="F233">
         <v>6</v>
       </c>
-      <c r="G233" t="n">
+      <c r="G233">
         <v>0.75</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>36</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>4</v>
       </c>
       <c r="C234" t="s">
@@ -5859,18 +5894,18 @@
       <c r="E234" t="s">
         <v>10</v>
       </c>
-      <c r="F234" t="n">
-        <v>1</v>
-      </c>
-      <c r="G234" t="n">
+      <c r="F234">
+        <v>1</v>
+      </c>
+      <c r="G234">
         <v>0.125</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>36</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>4</v>
       </c>
       <c r="C235" t="s">
@@ -5882,18 +5917,18 @@
       <c r="E235" t="s">
         <v>11</v>
       </c>
-      <c r="F235" t="n">
+      <c r="F235">
         <v>2</v>
       </c>
-      <c r="G235" t="n">
+      <c r="G235">
         <v>0.25</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>36</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>4</v>
       </c>
       <c r="C236" t="s">
@@ -5905,18 +5940,18 @@
       <c r="E236" t="s">
         <v>10</v>
       </c>
-      <c r="F236" t="n">
+      <c r="F236">
         <v>6</v>
       </c>
-      <c r="G236" t="n">
+      <c r="G236">
         <v>0.75</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>36</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>4</v>
       </c>
       <c r="C237" t="s">
@@ -5928,18 +5963,18 @@
       <c r="E237" t="s">
         <v>11</v>
       </c>
-      <c r="F237" t="n">
+      <c r="F237">
         <v>3</v>
       </c>
-      <c r="G237" t="n">
+      <c r="G237">
         <v>0.375</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>36</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>4</v>
       </c>
       <c r="C238" t="s">
@@ -5951,18 +5986,18 @@
       <c r="E238" t="s">
         <v>10</v>
       </c>
-      <c r="F238" t="n">
+      <c r="F238">
         <v>4</v>
       </c>
-      <c r="G238" t="n">
+      <c r="G238">
         <v>0.5</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>36</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>4</v>
       </c>
       <c r="C239" t="s">
@@ -5974,18 +6009,18 @@
       <c r="E239" t="s">
         <v>11</v>
       </c>
-      <c r="F239" t="n">
+      <c r="F239">
         <v>3</v>
       </c>
-      <c r="G239" t="n">
+      <c r="G239">
         <v>0.375</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>36</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>4</v>
       </c>
       <c r="C240" t="s">
@@ -5997,18 +6032,18 @@
       <c r="E240" t="s">
         <v>10</v>
       </c>
-      <c r="F240" t="n">
-        <v>8</v>
-      </c>
-      <c r="G240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
+      <c r="F240">
+        <v>8</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>36</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>4</v>
       </c>
       <c r="C241" t="s">
@@ -6020,18 +6055,18 @@
       <c r="E241" t="s">
         <v>11</v>
       </c>
-      <c r="F241" t="n">
+      <c r="F241">
         <v>6</v>
       </c>
-      <c r="G241" t="n">
+      <c r="G241">
         <v>0.75</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>37</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>5</v>
       </c>
       <c r="C242" t="s">
@@ -6043,18 +6078,18 @@
       <c r="E242" t="s">
         <v>10</v>
       </c>
-      <c r="F242" t="n">
-        <v>8</v>
-      </c>
-      <c r="G242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
+      <c r="F242">
+        <v>8</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>37</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>5</v>
       </c>
       <c r="C243" t="s">
@@ -6066,18 +6101,18 @@
       <c r="E243" t="s">
         <v>11</v>
       </c>
-      <c r="F243" t="n">
+      <c r="F243">
         <v>6</v>
       </c>
-      <c r="G243" t="n">
+      <c r="G243">
         <v>0.75</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>37</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>5</v>
       </c>
       <c r="C244" t="s">
@@ -6089,18 +6124,18 @@
       <c r="E244" t="s">
         <v>10</v>
       </c>
-      <c r="F244" t="n">
+      <c r="F244">
         <v>7</v>
       </c>
-      <c r="G244" t="n">
+      <c r="G244">
         <v>0.875</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>37</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>5</v>
       </c>
       <c r="C245" t="s">
@@ -6112,18 +6147,18 @@
       <c r="E245" t="s">
         <v>11</v>
       </c>
-      <c r="F245" t="n">
+      <c r="F245">
         <v>7</v>
       </c>
-      <c r="G245" t="n">
+      <c r="G245">
         <v>0.875</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>37</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>5</v>
       </c>
       <c r="C246" t="s">
@@ -6135,18 +6170,18 @@
       <c r="E246" t="s">
         <v>10</v>
       </c>
-      <c r="F246" t="n">
-        <v>8</v>
-      </c>
-      <c r="G246" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247">
+      <c r="F246">
+        <v>8</v>
+      </c>
+      <c r="G246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>37</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>5</v>
       </c>
       <c r="C247" t="s">
@@ -6158,18 +6193,18 @@
       <c r="E247" t="s">
         <v>11</v>
       </c>
-      <c r="F247" t="n">
+      <c r="F247">
         <v>3</v>
       </c>
-      <c r="G247" t="n">
+      <c r="G247">
         <v>0.375</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>37</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>5</v>
       </c>
       <c r="C248" t="s">
@@ -6181,18 +6216,18 @@
       <c r="E248" t="s">
         <v>10</v>
       </c>
-      <c r="F248" t="n">
+      <c r="F248">
         <v>5</v>
       </c>
-      <c r="G248" t="n">
+      <c r="G248">
         <v>0.625</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>37</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>5</v>
       </c>
       <c r="C249" t="s">
@@ -6204,18 +6239,18 @@
       <c r="E249" t="s">
         <v>11</v>
       </c>
-      <c r="F249" t="n">
+      <c r="F249">
         <v>3</v>
       </c>
-      <c r="G249" t="n">
+      <c r="G249">
         <v>0.375</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>37</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>5</v>
       </c>
       <c r="C250" t="s">
@@ -6227,18 +6262,18 @@
       <c r="E250" t="s">
         <v>10</v>
       </c>
-      <c r="F250" t="n">
-        <v>8</v>
-      </c>
-      <c r="G250" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251">
+      <c r="F250">
+        <v>8</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>37</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>5</v>
       </c>
       <c r="C251" t="s">
@@ -6250,18 +6285,18 @@
       <c r="E251" t="s">
         <v>11</v>
       </c>
-      <c r="F251" t="n">
-        <v>8</v>
-      </c>
-      <c r="G251" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252">
+      <c r="F251">
+        <v>8</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>37</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>5</v>
       </c>
       <c r="C252" t="s">
@@ -6273,18 +6308,18 @@
       <c r="E252" t="s">
         <v>10</v>
       </c>
-      <c r="F252" t="n">
+      <c r="F252">
         <v>4</v>
       </c>
-      <c r="G252" t="n">
+      <c r="G252">
         <v>0.5</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>37</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>5</v>
       </c>
       <c r="C253" t="s">
@@ -6296,18 +6331,18 @@
       <c r="E253" t="s">
         <v>11</v>
       </c>
-      <c r="F253" t="n">
+      <c r="F253">
         <v>4</v>
       </c>
-      <c r="G253" t="n">
+      <c r="G253">
         <v>0.5</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>38</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>5</v>
       </c>
       <c r="C254" t="s">
@@ -6319,18 +6354,18 @@
       <c r="E254" t="s">
         <v>10</v>
       </c>
-      <c r="F254" t="n">
-        <v>8</v>
-      </c>
-      <c r="G254" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255">
+      <c r="F254">
+        <v>8</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>38</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>5</v>
       </c>
       <c r="C255" t="s">
@@ -6342,18 +6377,18 @@
       <c r="E255" t="s">
         <v>11</v>
       </c>
-      <c r="F255" t="n">
+      <c r="F255">
         <v>3</v>
       </c>
-      <c r="G255" t="n">
+      <c r="G255">
         <v>0.375</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>38</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>5</v>
       </c>
       <c r="C256" t="s">
@@ -6365,18 +6400,18 @@
       <c r="E256" t="s">
         <v>10</v>
       </c>
-      <c r="F256" t="n">
-        <v>1</v>
-      </c>
-      <c r="G256" t="n">
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
         <v>0.125</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>38</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>5</v>
       </c>
       <c r="C257" t="s">
@@ -6388,18 +6423,18 @@
       <c r="E257" t="s">
         <v>11</v>
       </c>
-      <c r="F257" t="n">
-        <v>1</v>
-      </c>
-      <c r="G257" t="n">
+      <c r="F257">
+        <v>1</v>
+      </c>
+      <c r="G257">
         <v>0.125</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>38</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>5</v>
       </c>
       <c r="C258" t="s">
@@ -6411,18 +6446,18 @@
       <c r="E258" t="s">
         <v>10</v>
       </c>
-      <c r="F258" t="n">
+      <c r="F258">
         <v>4</v>
       </c>
-      <c r="G258" t="n">
+      <c r="G258">
         <v>0.5</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>38</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>5</v>
       </c>
       <c r="C259" t="s">
@@ -6434,18 +6469,18 @@
       <c r="E259" t="s">
         <v>11</v>
       </c>
-      <c r="F259" t="n">
+      <c r="F259">
         <v>4</v>
       </c>
-      <c r="G259" t="n">
+      <c r="G259">
         <v>0.5</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>38</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>5</v>
       </c>
       <c r="C260" t="s">
@@ -6457,18 +6492,18 @@
       <c r="E260" t="s">
         <v>10</v>
       </c>
-      <c r="F260" t="n">
+      <c r="F260">
         <v>5</v>
       </c>
-      <c r="G260" t="n">
+      <c r="G260">
         <v>0.625</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>38</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>5</v>
       </c>
       <c r="C261" t="s">
@@ -6480,18 +6515,18 @@
       <c r="E261" t="s">
         <v>11</v>
       </c>
-      <c r="F261" t="n">
+      <c r="F261">
         <v>0</v>
       </c>
-      <c r="G261" t="n">
+      <c r="G261">
         <v>0</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>38</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>5</v>
       </c>
       <c r="C262" t="s">
@@ -6503,18 +6538,18 @@
       <c r="E262" t="s">
         <v>10</v>
       </c>
-      <c r="F262" t="n">
+      <c r="F262">
         <v>5</v>
       </c>
-      <c r="G262" t="n">
+      <c r="G262">
         <v>0.625</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>38</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>5</v>
       </c>
       <c r="C263" t="s">
@@ -6526,18 +6561,18 @@
       <c r="E263" t="s">
         <v>11</v>
       </c>
-      <c r="F263" t="n">
+      <c r="F263">
         <v>2</v>
       </c>
-      <c r="G263" t="n">
+      <c r="G263">
         <v>0.25</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>38</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>5</v>
       </c>
       <c r="C264" t="s">
@@ -6549,18 +6584,18 @@
       <c r="E264" t="s">
         <v>10</v>
       </c>
-      <c r="F264" t="n">
-        <v>8</v>
-      </c>
-      <c r="G264" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265">
+      <c r="F264">
+        <v>8</v>
+      </c>
+      <c r="G264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>38</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>5</v>
       </c>
       <c r="C265" t="s">
@@ -6572,18 +6607,18 @@
       <c r="E265" t="s">
         <v>11</v>
       </c>
-      <c r="F265" t="n">
+      <c r="F265">
         <v>2</v>
       </c>
-      <c r="G265" t="n">
+      <c r="G265">
         <v>0.25</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>39</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>6</v>
       </c>
       <c r="C266" t="s">
@@ -6595,18 +6630,18 @@
       <c r="E266" t="s">
         <v>10</v>
       </c>
-      <c r="F266" t="n">
-        <v>8</v>
-      </c>
-      <c r="G266" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267">
+      <c r="F266">
+        <v>8</v>
+      </c>
+      <c r="G266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>39</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>6</v>
       </c>
       <c r="C267" t="s">
@@ -6618,18 +6653,18 @@
       <c r="E267" t="s">
         <v>11</v>
       </c>
-      <c r="F267" t="n">
+      <c r="F267">
         <v>4</v>
       </c>
-      <c r="G267" t="n">
+      <c r="G267">
         <v>0.5</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>39</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>6</v>
       </c>
       <c r="C268" t="s">
@@ -6641,18 +6676,18 @@
       <c r="E268" t="s">
         <v>10</v>
       </c>
-      <c r="F268" t="n">
-        <v>8</v>
-      </c>
-      <c r="G268" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269">
+      <c r="F268">
+        <v>8</v>
+      </c>
+      <c r="G268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>39</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>6</v>
       </c>
       <c r="C269" t="s">
@@ -6664,18 +6699,18 @@
       <c r="E269" t="s">
         <v>11</v>
       </c>
-      <c r="F269" t="n">
+      <c r="F269">
         <v>4</v>
       </c>
-      <c r="G269" t="n">
+      <c r="G269">
         <v>0.5</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>39</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>6</v>
       </c>
       <c r="C270" t="s">
@@ -6687,18 +6722,18 @@
       <c r="E270" t="s">
         <v>10</v>
       </c>
-      <c r="F270" t="n">
-        <v>8</v>
-      </c>
-      <c r="G270" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271">
+      <c r="F270">
+        <v>8</v>
+      </c>
+      <c r="G270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>39</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>6</v>
       </c>
       <c r="C271" t="s">
@@ -6710,18 +6745,18 @@
       <c r="E271" t="s">
         <v>11</v>
       </c>
-      <c r="F271" t="n">
+      <c r="F271">
         <v>3</v>
       </c>
-      <c r="G271" t="n">
+      <c r="G271">
         <v>0.375</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>39</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>6</v>
       </c>
       <c r="C272" t="s">
@@ -6733,18 +6768,18 @@
       <c r="E272" t="s">
         <v>10</v>
       </c>
-      <c r="F272" t="n">
+      <c r="F272">
         <v>7</v>
       </c>
-      <c r="G272" t="n">
+      <c r="G272">
         <v>0.875</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>39</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>6</v>
       </c>
       <c r="C273" t="s">
@@ -6756,18 +6791,18 @@
       <c r="E273" t="s">
         <v>11</v>
       </c>
-      <c r="F273" t="n">
+      <c r="F273">
         <v>3</v>
       </c>
-      <c r="G273" t="n">
+      <c r="G273">
         <v>0.375</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>39</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>6</v>
       </c>
       <c r="C274" t="s">
@@ -6779,18 +6814,18 @@
       <c r="E274" t="s">
         <v>10</v>
       </c>
-      <c r="F274" t="n">
-        <v>8</v>
-      </c>
-      <c r="G274" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275">
+      <c r="F274">
+        <v>8</v>
+      </c>
+      <c r="G274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>39</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>6</v>
       </c>
       <c r="C275" t="s">
@@ -6802,18 +6837,18 @@
       <c r="E275" t="s">
         <v>11</v>
       </c>
-      <c r="F275" t="n">
+      <c r="F275">
         <v>6</v>
       </c>
-      <c r="G275" t="n">
+      <c r="G275">
         <v>0.75</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>39</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>6</v>
       </c>
       <c r="C276" t="s">
@@ -6825,18 +6860,18 @@
       <c r="E276" t="s">
         <v>10</v>
       </c>
-      <c r="F276" t="n">
-        <v>8</v>
-      </c>
-      <c r="G276" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277">
+      <c r="F276">
+        <v>8</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>39</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>6</v>
       </c>
       <c r="C277" t="s">
@@ -6848,18 +6883,18 @@
       <c r="E277" t="s">
         <v>11</v>
       </c>
-      <c r="F277" t="n">
+      <c r="F277">
         <v>6</v>
       </c>
-      <c r="G277" t="n">
+      <c r="G277">
         <v>0.75</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>40</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>6</v>
       </c>
       <c r="C278" t="s">
@@ -6871,18 +6906,18 @@
       <c r="E278" t="s">
         <v>10</v>
       </c>
-      <c r="F278" t="n">
-        <v>8</v>
-      </c>
-      <c r="G278" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279">
+      <c r="F278">
+        <v>8</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>40</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>6</v>
       </c>
       <c r="C279" t="s">
@@ -6894,18 +6929,18 @@
       <c r="E279" t="s">
         <v>11</v>
       </c>
-      <c r="F279" t="n">
+      <c r="F279">
         <v>7</v>
       </c>
-      <c r="G279" t="n">
+      <c r="G279">
         <v>0.875</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>40</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>6</v>
       </c>
       <c r="C280" t="s">
@@ -6917,18 +6952,18 @@
       <c r="E280" t="s">
         <v>10</v>
       </c>
-      <c r="F280" t="n">
+      <c r="F280">
         <v>6</v>
       </c>
-      <c r="G280" t="n">
+      <c r="G280">
         <v>0.75</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>40</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>6</v>
       </c>
       <c r="C281" t="s">
@@ -6940,18 +6975,18 @@
       <c r="E281" t="s">
         <v>11</v>
       </c>
-      <c r="F281" t="n">
-        <v>1</v>
-      </c>
-      <c r="G281" t="n">
+      <c r="F281">
+        <v>1</v>
+      </c>
+      <c r="G281">
         <v>0.125</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>40</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>6</v>
       </c>
       <c r="C282" t="s">
@@ -6963,18 +6998,18 @@
       <c r="E282" t="s">
         <v>10</v>
       </c>
-      <c r="F282" t="n">
+      <c r="F282">
         <v>3</v>
       </c>
-      <c r="G282" t="n">
+      <c r="G282">
         <v>0.375</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>40</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>6</v>
       </c>
       <c r="C283" t="s">
@@ -6986,18 +7021,18 @@
       <c r="E283" t="s">
         <v>11</v>
       </c>
-      <c r="F283" t="n">
+      <c r="F283">
         <v>4</v>
       </c>
-      <c r="G283" t="n">
+      <c r="G283">
         <v>0.5</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>40</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>6</v>
       </c>
       <c r="C284" t="s">
@@ -7009,18 +7044,18 @@
       <c r="E284" t="s">
         <v>10</v>
       </c>
-      <c r="F284" t="n">
+      <c r="F284">
         <v>7</v>
       </c>
-      <c r="G284" t="n">
+      <c r="G284">
         <v>0.875</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>40</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>6</v>
       </c>
       <c r="C285" t="s">
@@ -7032,18 +7067,18 @@
       <c r="E285" t="s">
         <v>11</v>
       </c>
-      <c r="F285" t="n">
-        <v>1</v>
-      </c>
-      <c r="G285" t="n">
+      <c r="F285">
+        <v>1</v>
+      </c>
+      <c r="G285">
         <v>0.125</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>40</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>6</v>
       </c>
       <c r="C286" t="s">
@@ -7055,18 +7090,18 @@
       <c r="E286" t="s">
         <v>10</v>
       </c>
-      <c r="F286" t="n">
+      <c r="F286">
         <v>3</v>
       </c>
-      <c r="G286" t="n">
+      <c r="G286">
         <v>0.375</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>40</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>6</v>
       </c>
       <c r="C287" t="s">
@@ -7078,18 +7113,18 @@
       <c r="E287" t="s">
         <v>11</v>
       </c>
-      <c r="F287" t="n">
+      <c r="F287">
         <v>3</v>
       </c>
-      <c r="G287" t="n">
+      <c r="G287">
         <v>0.375</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>40</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>6</v>
       </c>
       <c r="C288" t="s">
@@ -7101,18 +7136,18 @@
       <c r="E288" t="s">
         <v>10</v>
       </c>
-      <c r="F288" t="n">
+      <c r="F288">
         <v>7</v>
       </c>
-      <c r="G288" t="n">
+      <c r="G288">
         <v>0.875</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>40</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>6</v>
       </c>
       <c r="C289" t="s">
@@ -7124,18 +7159,18 @@
       <c r="E289" t="s">
         <v>11</v>
       </c>
-      <c r="F289" t="n">
+      <c r="F289">
         <v>4</v>
       </c>
-      <c r="G289" t="n">
+      <c r="G289">
         <v>0.5</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>41</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>7</v>
       </c>
       <c r="C290" t="s">
@@ -7147,18 +7182,18 @@
       <c r="E290" t="s">
         <v>10</v>
       </c>
-      <c r="F290" t="n">
-        <v>8</v>
-      </c>
-      <c r="G290" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291">
+      <c r="F290">
+        <v>8</v>
+      </c>
+      <c r="G290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>41</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>7</v>
       </c>
       <c r="C291" t="s">
@@ -7170,18 +7205,18 @@
       <c r="E291" t="s">
         <v>11</v>
       </c>
-      <c r="F291" t="n">
+      <c r="F291">
         <v>3</v>
       </c>
-      <c r="G291" t="n">
+      <c r="G291">
         <v>0.375</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>41</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>7</v>
       </c>
       <c r="C292" t="s">
@@ -7193,18 +7228,18 @@
       <c r="E292" t="s">
         <v>10</v>
       </c>
-      <c r="F292" t="n">
+      <c r="F292">
         <v>7</v>
       </c>
-      <c r="G292" t="n">
+      <c r="G292">
         <v>0.875</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>41</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>7</v>
       </c>
       <c r="C293" t="s">
@@ -7216,18 +7251,18 @@
       <c r="E293" t="s">
         <v>11</v>
       </c>
-      <c r="F293" t="n">
+      <c r="F293">
         <v>4</v>
       </c>
-      <c r="G293" t="n">
+      <c r="G293">
         <v>0.5</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>41</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>7</v>
       </c>
       <c r="C294" t="s">
@@ -7239,18 +7274,18 @@
       <c r="E294" t="s">
         <v>10</v>
       </c>
-      <c r="F294" t="n">
-        <v>8</v>
-      </c>
-      <c r="G294" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295">
+      <c r="F294">
+        <v>8</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>41</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>7</v>
       </c>
       <c r="C295" t="s">
@@ -7262,18 +7297,18 @@
       <c r="E295" t="s">
         <v>11</v>
       </c>
-      <c r="F295" t="n">
+      <c r="F295">
         <v>3</v>
       </c>
-      <c r="G295" t="n">
+      <c r="G295">
         <v>0.375</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>41</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>7</v>
       </c>
       <c r="C296" t="s">
@@ -7285,18 +7320,18 @@
       <c r="E296" t="s">
         <v>10</v>
       </c>
-      <c r="F296" t="n">
+      <c r="F296">
         <v>7</v>
       </c>
-      <c r="G296" t="n">
+      <c r="G296">
         <v>0.875</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>41</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>7</v>
       </c>
       <c r="C297" t="s">
@@ -7308,18 +7343,18 @@
       <c r="E297" t="s">
         <v>11</v>
       </c>
-      <c r="F297" t="n">
+      <c r="F297">
         <v>2</v>
       </c>
-      <c r="G297" t="n">
+      <c r="G297">
         <v>0.25</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>41</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>7</v>
       </c>
       <c r="C298" t="s">
@@ -7331,18 +7366,18 @@
       <c r="E298" t="s">
         <v>10</v>
       </c>
-      <c r="F298" t="n">
+      <c r="F298">
         <v>7</v>
       </c>
-      <c r="G298" t="n">
+      <c r="G298">
         <v>0.875</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>41</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>7</v>
       </c>
       <c r="C299" t="s">
@@ -7354,18 +7389,18 @@
       <c r="E299" t="s">
         <v>11</v>
       </c>
-      <c r="F299" t="n">
+      <c r="F299">
         <v>5</v>
       </c>
-      <c r="G299" t="n">
+      <c r="G299">
         <v>0.625</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>41</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>7</v>
       </c>
       <c r="C300" t="s">
@@ -7377,18 +7412,18 @@
       <c r="E300" t="s">
         <v>10</v>
       </c>
-      <c r="F300" t="n">
-        <v>8</v>
-      </c>
-      <c r="G300" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301">
+      <c r="F300">
+        <v>8</v>
+      </c>
+      <c r="G300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>41</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>7</v>
       </c>
       <c r="C301" t="s">
@@ -7400,18 +7435,18 @@
       <c r="E301" t="s">
         <v>11</v>
       </c>
-      <c r="F301" t="n">
+      <c r="F301">
         <v>2</v>
       </c>
-      <c r="G301" t="n">
+      <c r="G301">
         <v>0.25</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>42</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>7</v>
       </c>
       <c r="C302" t="s">
@@ -7423,18 +7458,18 @@
       <c r="E302" t="s">
         <v>10</v>
       </c>
-      <c r="F302" t="n">
-        <v>8</v>
-      </c>
-      <c r="G302" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303">
+      <c r="F302">
+        <v>8</v>
+      </c>
+      <c r="G302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>42</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>7</v>
       </c>
       <c r="C303" t="s">
@@ -7446,18 +7481,18 @@
       <c r="E303" t="s">
         <v>11</v>
       </c>
-      <c r="F303" t="n">
+      <c r="F303">
         <v>5</v>
       </c>
-      <c r="G303" t="n">
+      <c r="G303">
         <v>0.625</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>42</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>7</v>
       </c>
       <c r="C304" t="s">
@@ -7469,18 +7504,18 @@
       <c r="E304" t="s">
         <v>10</v>
       </c>
-      <c r="F304" t="n">
+      <c r="F304">
         <v>7</v>
       </c>
-      <c r="G304" t="n">
+      <c r="G304">
         <v>0.875</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>42</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>7</v>
       </c>
       <c r="C305" t="s">
@@ -7492,18 +7527,18 @@
       <c r="E305" t="s">
         <v>11</v>
       </c>
-      <c r="F305" t="n">
+      <c r="F305">
         <v>5</v>
       </c>
-      <c r="G305" t="n">
+      <c r="G305">
         <v>0.625</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>42</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>7</v>
       </c>
       <c r="C306" t="s">
@@ -7515,18 +7550,18 @@
       <c r="E306" t="s">
         <v>10</v>
       </c>
-      <c r="F306" t="n">
-        <v>8</v>
-      </c>
-      <c r="G306" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307">
+      <c r="F306">
+        <v>8</v>
+      </c>
+      <c r="G306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>42</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>7</v>
       </c>
       <c r="C307" t="s">
@@ -7538,18 +7573,18 @@
       <c r="E307" t="s">
         <v>11</v>
       </c>
-      <c r="F307" t="n">
+      <c r="F307">
         <v>5</v>
       </c>
-      <c r="G307" t="n">
+      <c r="G307">
         <v>0.625</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>42</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>7</v>
       </c>
       <c r="C308" t="s">
@@ -7561,18 +7596,18 @@
       <c r="E308" t="s">
         <v>10</v>
       </c>
-      <c r="F308" t="n">
+      <c r="F308">
         <v>7</v>
       </c>
-      <c r="G308" t="n">
+      <c r="G308">
         <v>0.875</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>42</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>7</v>
       </c>
       <c r="C309" t="s">
@@ -7584,18 +7619,18 @@
       <c r="E309" t="s">
         <v>11</v>
       </c>
-      <c r="F309" t="n">
+      <c r="F309">
         <v>6</v>
       </c>
-      <c r="G309" t="n">
+      <c r="G309">
         <v>0.75</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>42</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>7</v>
       </c>
       <c r="C310" t="s">
@@ -7607,18 +7642,18 @@
       <c r="E310" t="s">
         <v>10</v>
       </c>
-      <c r="F310" t="n">
+      <c r="F310">
         <v>5</v>
       </c>
-      <c r="G310" t="n">
+      <c r="G310">
         <v>0.625</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>42</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>7</v>
       </c>
       <c r="C311" t="s">
@@ -7630,18 +7665,18 @@
       <c r="E311" t="s">
         <v>11</v>
       </c>
-      <c r="F311" t="n">
+      <c r="F311">
         <v>6</v>
       </c>
-      <c r="G311" t="n">
+      <c r="G311">
         <v>0.75</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>42</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>7</v>
       </c>
       <c r="C312" t="s">
@@ -7653,18 +7688,18 @@
       <c r="E312" t="s">
         <v>10</v>
       </c>
-      <c r="F312" t="n">
+      <c r="F312">
         <v>6</v>
       </c>
-      <c r="G312" t="n">
+      <c r="G312">
         <v>0.75</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>42</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>7</v>
       </c>
       <c r="C313" t="s">
@@ -7676,18 +7711,18 @@
       <c r="E313" t="s">
         <v>11</v>
       </c>
-      <c r="F313" t="n">
+      <c r="F313">
         <v>2</v>
       </c>
-      <c r="G313" t="n">
+      <c r="G313">
         <v>0.25</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>43</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>8</v>
       </c>
       <c r="C314" t="s">
@@ -7699,18 +7734,18 @@
       <c r="E314" t="s">
         <v>10</v>
       </c>
-      <c r="F314" t="n">
-        <v>8</v>
-      </c>
-      <c r="G314" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315">
+      <c r="F314">
+        <v>8</v>
+      </c>
+      <c r="G314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>43</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>8</v>
       </c>
       <c r="C315" t="s">
@@ -7722,18 +7757,18 @@
       <c r="E315" t="s">
         <v>11</v>
       </c>
-      <c r="F315" t="n">
+      <c r="F315">
         <v>6</v>
       </c>
-      <c r="G315" t="n">
+      <c r="G315">
         <v>0.75</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>43</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>8</v>
       </c>
       <c r="C316" t="s">
@@ -7745,18 +7780,18 @@
       <c r="E316" t="s">
         <v>10</v>
       </c>
-      <c r="F316" t="n">
+      <c r="F316">
         <v>4</v>
       </c>
-      <c r="G316" t="n">
+      <c r="G316">
         <v>0.5</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>43</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>8</v>
       </c>
       <c r="C317" t="s">
@@ -7768,18 +7803,18 @@
       <c r="E317" t="s">
         <v>11</v>
       </c>
-      <c r="F317" t="n">
+      <c r="F317">
         <v>3</v>
       </c>
-      <c r="G317" t="n">
+      <c r="G317">
         <v>0.375</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>43</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>8</v>
       </c>
       <c r="C318" t="s">
@@ -7791,18 +7826,18 @@
       <c r="E318" t="s">
         <v>10</v>
       </c>
-      <c r="F318" t="n">
+      <c r="F318">
         <v>7</v>
       </c>
-      <c r="G318" t="n">
+      <c r="G318">
         <v>0.875</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>43</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>8</v>
       </c>
       <c r="C319" t="s">
@@ -7814,18 +7849,18 @@
       <c r="E319" t="s">
         <v>11</v>
       </c>
-      <c r="F319" t="n">
+      <c r="F319">
         <v>4</v>
       </c>
-      <c r="G319" t="n">
+      <c r="G319">
         <v>0.5</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>43</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>8</v>
       </c>
       <c r="C320" t="s">
@@ -7837,18 +7872,18 @@
       <c r="E320" t="s">
         <v>10</v>
       </c>
-      <c r="F320" t="n">
+      <c r="F320">
         <v>5</v>
       </c>
-      <c r="G320" t="n">
+      <c r="G320">
         <v>0.625</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>43</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>8</v>
       </c>
       <c r="C321" t="s">
@@ -7860,18 +7895,18 @@
       <c r="E321" t="s">
         <v>11</v>
       </c>
-      <c r="F321" t="n">
+      <c r="F321">
         <v>2</v>
       </c>
-      <c r="G321" t="n">
+      <c r="G321">
         <v>0.25</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>43</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>8</v>
       </c>
       <c r="C322" t="s">
@@ -7883,18 +7918,18 @@
       <c r="E322" t="s">
         <v>10</v>
       </c>
-      <c r="F322" t="n">
+      <c r="F322">
         <v>6</v>
       </c>
-      <c r="G322" t="n">
+      <c r="G322">
         <v>0.75</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>43</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>8</v>
       </c>
       <c r="C323" t="s">
@@ -7906,18 +7941,18 @@
       <c r="E323" t="s">
         <v>11</v>
       </c>
-      <c r="F323" t="n">
+      <c r="F323">
         <v>7</v>
       </c>
-      <c r="G323" t="n">
+      <c r="G323">
         <v>0.875</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>43</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>8</v>
       </c>
       <c r="C324" t="s">
@@ -7929,18 +7964,18 @@
       <c r="E324" t="s">
         <v>10</v>
       </c>
-      <c r="F324" t="n">
+      <c r="F324">
         <v>6</v>
       </c>
-      <c r="G324" t="n">
+      <c r="G324">
         <v>0.75</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>43</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>8</v>
       </c>
       <c r="C325" t="s">
@@ -7952,18 +7987,18 @@
       <c r="E325" t="s">
         <v>11</v>
       </c>
-      <c r="F325" t="n">
+      <c r="F325">
         <v>3</v>
       </c>
-      <c r="G325" t="n">
+      <c r="G325">
         <v>0.375</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>44</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>8</v>
       </c>
       <c r="C326" t="s">
@@ -7975,18 +8010,18 @@
       <c r="E326" t="s">
         <v>10</v>
       </c>
-      <c r="F326" t="n">
-        <v>8</v>
-      </c>
-      <c r="G326" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327">
+      <c r="F326">
+        <v>8</v>
+      </c>
+      <c r="G326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>44</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>8</v>
       </c>
       <c r="C327" t="s">
@@ -7998,18 +8033,18 @@
       <c r="E327" t="s">
         <v>11</v>
       </c>
-      <c r="F327" t="n">
+      <c r="F327">
         <v>3</v>
       </c>
-      <c r="G327" t="n">
+      <c r="G327">
         <v>0.375</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>44</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>8</v>
       </c>
       <c r="C328" t="s">
@@ -8021,18 +8056,18 @@
       <c r="E328" t="s">
         <v>10</v>
       </c>
-      <c r="F328" t="n">
-        <v>8</v>
-      </c>
-      <c r="G328" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329">
+      <c r="F328">
+        <v>8</v>
+      </c>
+      <c r="G328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>44</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>8</v>
       </c>
       <c r="C329" t="s">
@@ -8044,18 +8079,18 @@
       <c r="E329" t="s">
         <v>11</v>
       </c>
-      <c r="F329" t="n">
-        <v>8</v>
-      </c>
-      <c r="G329" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330">
+      <c r="F329">
+        <v>8</v>
+      </c>
+      <c r="G329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>44</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>8</v>
       </c>
       <c r="C330" t="s">
@@ -8067,18 +8102,18 @@
       <c r="E330" t="s">
         <v>10</v>
       </c>
-      <c r="F330" t="n">
-        <v>8</v>
-      </c>
-      <c r="G330" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331">
+      <c r="F330">
+        <v>8</v>
+      </c>
+      <c r="G330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>44</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>8</v>
       </c>
       <c r="C331" t="s">
@@ -8090,18 +8125,18 @@
       <c r="E331" t="s">
         <v>11</v>
       </c>
-      <c r="F331" t="n">
+      <c r="F331">
         <v>3</v>
       </c>
-      <c r="G331" t="n">
+      <c r="G331">
         <v>0.375</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>44</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>8</v>
       </c>
       <c r="C332" t="s">
@@ -8113,18 +8148,18 @@
       <c r="E332" t="s">
         <v>10</v>
       </c>
-      <c r="F332" t="n">
-        <v>8</v>
-      </c>
-      <c r="G332" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333">
+      <c r="F332">
+        <v>8</v>
+      </c>
+      <c r="G332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>44</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>8</v>
       </c>
       <c r="C333" t="s">
@@ -8136,18 +8171,18 @@
       <c r="E333" t="s">
         <v>11</v>
       </c>
-      <c r="F333" t="n">
+      <c r="F333">
         <v>6</v>
       </c>
-      <c r="G333" t="n">
+      <c r="G333">
         <v>0.75</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>44</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>8</v>
       </c>
       <c r="C334" t="s">
@@ -8159,18 +8194,18 @@
       <c r="E334" t="s">
         <v>10</v>
       </c>
-      <c r="F334" t="n">
-        <v>8</v>
-      </c>
-      <c r="G334" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335">
+      <c r="F334">
+        <v>8</v>
+      </c>
+      <c r="G334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>44</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335">
         <v>8</v>
       </c>
       <c r="C335" t="s">
@@ -8182,18 +8217,18 @@
       <c r="E335" t="s">
         <v>11</v>
       </c>
-      <c r="F335" t="n">
-        <v>8</v>
-      </c>
-      <c r="G335" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336">
+      <c r="F335">
+        <v>8</v>
+      </c>
+      <c r="G335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>44</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>8</v>
       </c>
       <c r="C336" t="s">
@@ -8205,18 +8240,18 @@
       <c r="E336" t="s">
         <v>10</v>
       </c>
-      <c r="F336" t="n">
+      <c r="F336">
         <v>6</v>
       </c>
-      <c r="G336" t="n">
+      <c r="G336">
         <v>0.75</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>44</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337">
         <v>8</v>
       </c>
       <c r="C337" t="s">
@@ -8228,18 +8263,18 @@
       <c r="E337" t="s">
         <v>11</v>
       </c>
-      <c r="F337" t="n">
-        <v>1</v>
-      </c>
-      <c r="G337" t="n">
+      <c r="F337">
+        <v>1</v>
+      </c>
+      <c r="G337">
         <v>0.125</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>45</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338">
         <v>9</v>
       </c>
       <c r="C338" t="s">
@@ -8251,18 +8286,18 @@
       <c r="E338" t="s">
         <v>10</v>
       </c>
-      <c r="F338" t="n">
-        <v>8</v>
-      </c>
-      <c r="G338" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339">
+      <c r="F338">
+        <v>8</v>
+      </c>
+      <c r="G338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>45</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B339">
         <v>9</v>
       </c>
       <c r="C339" t="s">
@@ -8274,18 +8309,18 @@
       <c r="E339" t="s">
         <v>11</v>
       </c>
-      <c r="F339" t="n">
+      <c r="F339">
         <v>6</v>
       </c>
-      <c r="G339" t="n">
+      <c r="G339">
         <v>0.75</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>45</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340">
         <v>9</v>
       </c>
       <c r="C340" t="s">
@@ -8297,18 +8332,18 @@
       <c r="E340" t="s">
         <v>10</v>
       </c>
-      <c r="F340" t="n">
-        <v>8</v>
-      </c>
-      <c r="G340" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341">
+      <c r="F340">
+        <v>8</v>
+      </c>
+      <c r="G340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>45</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341">
         <v>9</v>
       </c>
       <c r="C341" t="s">
@@ -8320,18 +8355,18 @@
       <c r="E341" t="s">
         <v>11</v>
       </c>
-      <c r="F341" t="n">
+      <c r="F341">
         <v>6</v>
       </c>
-      <c r="G341" t="n">
+      <c r="G341">
         <v>0.75</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>45</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B342">
         <v>9</v>
       </c>
       <c r="C342" t="s">
@@ -8343,18 +8378,18 @@
       <c r="E342" t="s">
         <v>10</v>
       </c>
-      <c r="F342" t="n">
+      <c r="F342">
         <v>4</v>
       </c>
-      <c r="G342" t="n">
+      <c r="G342">
         <v>0.5</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>45</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>9</v>
       </c>
       <c r="C343" t="s">
@@ -8366,18 +8401,18 @@
       <c r="E343" t="s">
         <v>11</v>
       </c>
-      <c r="F343" t="n">
+      <c r="F343">
         <v>3</v>
       </c>
-      <c r="G343" t="n">
+      <c r="G343">
         <v>0.375</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>45</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B344">
         <v>9</v>
       </c>
       <c r="C344" t="s">
@@ -8389,18 +8424,18 @@
       <c r="E344" t="s">
         <v>10</v>
       </c>
-      <c r="F344" t="n">
+      <c r="F344">
         <v>6</v>
       </c>
-      <c r="G344" t="n">
+      <c r="G344">
         <v>0.75</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>45</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345">
         <v>9</v>
       </c>
       <c r="C345" t="s">
@@ -8412,18 +8447,18 @@
       <c r="E345" t="s">
         <v>11</v>
       </c>
-      <c r="F345" t="n">
-        <v>1</v>
-      </c>
-      <c r="G345" t="n">
+      <c r="F345">
+        <v>1</v>
+      </c>
+      <c r="G345">
         <v>0.125</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>45</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346">
         <v>9</v>
       </c>
       <c r="C346" t="s">
@@ -8435,18 +8470,18 @@
       <c r="E346" t="s">
         <v>10</v>
       </c>
-      <c r="F346" t="n">
+      <c r="F346">
         <v>3</v>
       </c>
-      <c r="G346" t="n">
+      <c r="G346">
         <v>0.375</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>45</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347">
         <v>9</v>
       </c>
       <c r="C347" t="s">
@@ -8458,18 +8493,18 @@
       <c r="E347" t="s">
         <v>11</v>
       </c>
-      <c r="F347" t="n">
+      <c r="F347">
         <v>4</v>
       </c>
-      <c r="G347" t="n">
+      <c r="G347">
         <v>0.5</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>45</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B348">
         <v>9</v>
       </c>
       <c r="C348" t="s">
@@ -8481,18 +8516,18 @@
       <c r="E348" t="s">
         <v>10</v>
       </c>
-      <c r="F348" t="n">
+      <c r="F348">
         <v>4</v>
       </c>
-      <c r="G348" t="n">
+      <c r="G348">
         <v>0.5</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>45</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B349">
         <v>9</v>
       </c>
       <c r="C349" t="s">
@@ -8504,18 +8539,18 @@
       <c r="E349" t="s">
         <v>11</v>
       </c>
-      <c r="F349" t="n">
+      <c r="F349">
         <v>4</v>
       </c>
-      <c r="G349" t="n">
+      <c r="G349">
         <v>0.5</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>46</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350">
         <v>9</v>
       </c>
       <c r="C350" t="s">
@@ -8527,18 +8562,18 @@
       <c r="E350" t="s">
         <v>10</v>
       </c>
-      <c r="F350" t="n">
-        <v>8</v>
-      </c>
-      <c r="G350" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351">
+      <c r="F350">
+        <v>8</v>
+      </c>
+      <c r="G350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>46</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>9</v>
       </c>
       <c r="C351" t="s">
@@ -8550,18 +8585,18 @@
       <c r="E351" t="s">
         <v>11</v>
       </c>
-      <c r="F351" t="n">
+      <c r="F351">
         <v>7</v>
       </c>
-      <c r="G351" t="n">
+      <c r="G351">
         <v>0.875</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>46</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352">
         <v>9</v>
       </c>
       <c r="C352" t="s">
@@ -8573,18 +8608,18 @@
       <c r="E352" t="s">
         <v>10</v>
       </c>
-      <c r="F352" t="n">
+      <c r="F352">
         <v>7</v>
       </c>
-      <c r="G352" t="n">
+      <c r="G352">
         <v>0.875</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>46</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B353">
         <v>9</v>
       </c>
       <c r="C353" t="s">
@@ -8596,18 +8631,18 @@
       <c r="E353" t="s">
         <v>11</v>
       </c>
-      <c r="F353" t="n">
+      <c r="F353">
         <v>0</v>
       </c>
-      <c r="G353" t="n">
+      <c r="G353">
         <v>0</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>46</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>9</v>
       </c>
       <c r="C354" t="s">
@@ -8619,18 +8654,18 @@
       <c r="E354" t="s">
         <v>10</v>
       </c>
-      <c r="F354" t="n">
-        <v>8</v>
-      </c>
-      <c r="G354" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355">
+      <c r="F354">
+        <v>8</v>
+      </c>
+      <c r="G354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>46</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355">
         <v>9</v>
       </c>
       <c r="C355" t="s">
@@ -8642,18 +8677,18 @@
       <c r="E355" t="s">
         <v>11</v>
       </c>
-      <c r="F355" t="n">
+      <c r="F355">
         <v>5</v>
       </c>
-      <c r="G355" t="n">
+      <c r="G355">
         <v>0.625</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>46</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B356">
         <v>9</v>
       </c>
       <c r="C356" t="s">
@@ -8665,18 +8700,18 @@
       <c r="E356" t="s">
         <v>10</v>
       </c>
-      <c r="F356" t="n">
+      <c r="F356">
         <v>5</v>
       </c>
-      <c r="G356" t="n">
+      <c r="G356">
         <v>0.625</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>46</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357">
         <v>9</v>
       </c>
       <c r="C357" t="s">
@@ -8688,18 +8723,18 @@
       <c r="E357" t="s">
         <v>11</v>
       </c>
-      <c r="F357" t="n">
+      <c r="F357">
         <v>2</v>
       </c>
-      <c r="G357" t="n">
+      <c r="G357">
         <v>0.25</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>46</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358">
         <v>9</v>
       </c>
       <c r="C358" t="s">
@@ -8711,18 +8746,18 @@
       <c r="E358" t="s">
         <v>10</v>
       </c>
-      <c r="F358" t="n">
+      <c r="F358">
         <v>4</v>
       </c>
-      <c r="G358" t="n">
+      <c r="G358">
         <v>0.5</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>46</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>9</v>
       </c>
       <c r="C359" t="s">
@@ -8734,18 +8769,18 @@
       <c r="E359" t="s">
         <v>11</v>
       </c>
-      <c r="F359" t="n">
-        <v>1</v>
-      </c>
-      <c r="G359" t="n">
+      <c r="F359">
+        <v>1</v>
+      </c>
+      <c r="G359">
         <v>0.125</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>46</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B360">
         <v>9</v>
       </c>
       <c r="C360" t="s">
@@ -8757,18 +8792,18 @@
       <c r="E360" t="s">
         <v>10</v>
       </c>
-      <c r="F360" t="n">
+      <c r="F360">
         <v>3</v>
       </c>
-      <c r="G360" t="n">
+      <c r="G360">
         <v>0.375</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>46</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B361">
         <v>9</v>
       </c>
       <c r="C361" t="s">
@@ -8780,15 +8815,15 @@
       <c r="E361" t="s">
         <v>11</v>
       </c>
-      <c r="F361" t="n">
+      <c r="F361">
         <v>4</v>
       </c>
-      <c r="G361" t="n">
+      <c r="G361">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>